--- a/parasoftbugs-checked.xlsx
+++ b/parasoftbugs-checked.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Maxbe\Desktop\Capstone\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{12FF7DE7-2997-46C8-ADDA-B19EC6F0908C}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4D93560A-7C39-4755-82A4-CDDD0CEDD183}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -2683,11 +2683,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <sheetPr filterMode="1"/>
   <dimension ref="A1:P866"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B216" workbookViewId="0">
-      <selection activeCell="C649" sqref="A649:XFD649"/>
+    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
+      <selection activeCell="R459" sqref="R459"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2746,7 +2745,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="2" spans="1:16" hidden="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A2">
         <v>0</v>
       </c>
@@ -2793,7 +2792,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:16" hidden="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A3">
         <v>1</v>
       </c>
@@ -2840,7 +2839,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:16" hidden="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A4">
         <v>2</v>
       </c>
@@ -2887,7 +2886,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:16" hidden="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A5">
         <v>3</v>
       </c>
@@ -2934,7 +2933,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:16" hidden="1" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A6">
         <v>4</v>
       </c>
@@ -2981,7 +2980,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:16" hidden="1" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A7">
         <v>5</v>
       </c>
@@ -3028,7 +3027,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:16" hidden="1" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A8">
         <v>6</v>
       </c>
@@ -3075,7 +3074,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:16" hidden="1" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A9">
         <v>7</v>
       </c>
@@ -3122,7 +3121,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:16" hidden="1" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A10">
         <v>8</v>
       </c>
@@ -3169,7 +3168,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:16" hidden="1" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A11">
         <v>9</v>
       </c>
@@ -3216,7 +3215,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:16" hidden="1" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A12">
         <v>10</v>
       </c>
@@ -3263,7 +3262,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:16" hidden="1" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A13">
         <v>11</v>
       </c>
@@ -3310,7 +3309,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:16" hidden="1" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A14">
         <v>12</v>
       </c>
@@ -3357,7 +3356,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:16" hidden="1" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A15">
         <v>13</v>
       </c>
@@ -3404,7 +3403,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:16" hidden="1" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A16">
         <v>14</v>
       </c>
@@ -3451,7 +3450,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="1:16" hidden="1" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A17">
         <v>15</v>
       </c>
@@ -3498,7 +3497,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="1:16" hidden="1" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A18">
         <v>16</v>
       </c>
@@ -3545,7 +3544,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="1:16" hidden="1" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A19">
         <v>17</v>
       </c>
@@ -3592,7 +3591,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="1:16" hidden="1" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A20">
         <v>18</v>
       </c>
@@ -3639,7 +3638,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="1:16" hidden="1" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A21">
         <v>19</v>
       </c>
@@ -3686,7 +3685,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="22" spans="1:16" hidden="1" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A22">
         <v>20</v>
       </c>
@@ -3733,7 +3732,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="23" spans="1:16" hidden="1" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A23">
         <v>21</v>
       </c>
@@ -3780,7 +3779,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="24" spans="1:16" hidden="1" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A24">
         <v>22</v>
       </c>
@@ -3827,7 +3826,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="25" spans="1:16" hidden="1" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A25">
         <v>23</v>
       </c>
@@ -3874,7 +3873,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="26" spans="1:16" hidden="1" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A26">
         <v>24</v>
       </c>
@@ -3921,7 +3920,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="27" spans="1:16" hidden="1" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A27">
         <v>25</v>
       </c>
@@ -3968,7 +3967,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="28" spans="1:16" hidden="1" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A28">
         <v>26</v>
       </c>
@@ -4015,7 +4014,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="29" spans="1:16" hidden="1" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A29">
         <v>27</v>
       </c>
@@ -4062,7 +4061,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="30" spans="1:16" hidden="1" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A30">
         <v>28</v>
       </c>
@@ -4109,7 +4108,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="31" spans="1:16" hidden="1" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A31">
         <v>29</v>
       </c>
@@ -4156,7 +4155,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="32" spans="1:16" hidden="1" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A32">
         <v>30</v>
       </c>
@@ -4203,7 +4202,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="33" spans="1:16" hidden="1" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A33">
         <v>31</v>
       </c>
@@ -4250,7 +4249,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="34" spans="1:16" hidden="1" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A34">
         <v>32</v>
       </c>
@@ -4297,7 +4296,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="35" spans="1:16" hidden="1" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A35">
         <v>33</v>
       </c>
@@ -4344,7 +4343,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="36" spans="1:16" hidden="1" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A36">
         <v>34</v>
       </c>
@@ -4391,7 +4390,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="37" spans="1:16" hidden="1" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A37">
         <v>35</v>
       </c>
@@ -4438,7 +4437,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="38" spans="1:16" hidden="1" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A38">
         <v>36</v>
       </c>
@@ -4485,7 +4484,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="39" spans="1:16" hidden="1" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A39">
         <v>37</v>
       </c>
@@ -4532,7 +4531,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="40" spans="1:16" hidden="1" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A40">
         <v>38</v>
       </c>
@@ -4579,7 +4578,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="41" spans="1:16" hidden="1" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A41">
         <v>39</v>
       </c>
@@ -4626,7 +4625,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="42" spans="1:16" hidden="1" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A42">
         <v>40</v>
       </c>
@@ -4673,7 +4672,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="43" spans="1:16" hidden="1" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A43">
         <v>41</v>
       </c>
@@ -4720,7 +4719,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="44" spans="1:16" hidden="1" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A44">
         <v>42</v>
       </c>
@@ -4767,7 +4766,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="45" spans="1:16" hidden="1" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A45">
         <v>43</v>
       </c>
@@ -4814,7 +4813,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="46" spans="1:16" hidden="1" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A46">
         <v>44</v>
       </c>
@@ -4861,7 +4860,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="47" spans="1:16" hidden="1" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A47">
         <v>45</v>
       </c>
@@ -4908,7 +4907,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="48" spans="1:16" hidden="1" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A48">
         <v>46</v>
       </c>
@@ -4955,7 +4954,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="49" spans="1:16" hidden="1" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A49">
         <v>47</v>
       </c>
@@ -5002,7 +5001,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="50" spans="1:16" hidden="1" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A50">
         <v>48</v>
       </c>
@@ -5049,7 +5048,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="51" spans="1:16" hidden="1" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A51">
         <v>49</v>
       </c>
@@ -5096,7 +5095,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="52" spans="1:16" hidden="1" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A52">
         <v>50</v>
       </c>
@@ -5143,7 +5142,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="53" spans="1:16" hidden="1" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A53">
         <v>51</v>
       </c>
@@ -5190,7 +5189,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="54" spans="1:16" hidden="1" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A54">
         <v>52</v>
       </c>
@@ -5237,7 +5236,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="55" spans="1:16" hidden="1" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A55">
         <v>53</v>
       </c>
@@ -5284,7 +5283,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="56" spans="1:16" hidden="1" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A56">
         <v>54</v>
       </c>
@@ -5331,7 +5330,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="57" spans="1:16" hidden="1" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A57">
         <v>55</v>
       </c>
@@ -5378,7 +5377,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="58" spans="1:16" hidden="1" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A58">
         <v>56</v>
       </c>
@@ -5425,7 +5424,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="59" spans="1:16" hidden="1" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A59">
         <v>57</v>
       </c>
@@ -5472,7 +5471,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="60" spans="1:16" hidden="1" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A60">
         <v>58</v>
       </c>
@@ -5519,7 +5518,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="61" spans="1:16" hidden="1" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A61">
         <v>59</v>
       </c>
@@ -5566,7 +5565,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="62" spans="1:16" hidden="1" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A62">
         <v>60</v>
       </c>
@@ -5613,7 +5612,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="63" spans="1:16" hidden="1" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A63">
         <v>61</v>
       </c>
@@ -5660,7 +5659,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="64" spans="1:16" hidden="1" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A64">
         <v>62</v>
       </c>
@@ -5707,7 +5706,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="65" spans="1:16" hidden="1" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A65">
         <v>63</v>
       </c>
@@ -5754,7 +5753,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="66" spans="1:16" hidden="1" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A66">
         <v>64</v>
       </c>
@@ -5801,7 +5800,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="67" spans="1:16" hidden="1" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A67">
         <v>65</v>
       </c>
@@ -5848,7 +5847,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="68" spans="1:16" hidden="1" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A68">
         <v>66</v>
       </c>
@@ -5895,7 +5894,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="69" spans="1:16" hidden="1" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A69">
         <v>67</v>
       </c>
@@ -5942,7 +5941,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="70" spans="1:16" hidden="1" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A70">
         <v>68</v>
       </c>
@@ -5989,7 +5988,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="71" spans="1:16" hidden="1" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A71">
         <v>69</v>
       </c>
@@ -6036,7 +6035,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="72" spans="1:16" hidden="1" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A72">
         <v>70</v>
       </c>
@@ -6224,7 +6223,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="76" spans="1:16" hidden="1" x14ac:dyDescent="0.3">
+    <row r="76" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A76">
         <v>74</v>
       </c>
@@ -6271,7 +6270,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="77" spans="1:16" hidden="1" x14ac:dyDescent="0.3">
+    <row r="77" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A77">
         <v>75</v>
       </c>
@@ -6318,7 +6317,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="78" spans="1:16" hidden="1" x14ac:dyDescent="0.3">
+    <row r="78" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A78">
         <v>76</v>
       </c>
@@ -6365,7 +6364,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="79" spans="1:16" hidden="1" x14ac:dyDescent="0.3">
+    <row r="79" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A79">
         <v>77</v>
       </c>
@@ -6412,7 +6411,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="80" spans="1:16" hidden="1" x14ac:dyDescent="0.3">
+    <row r="80" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A80">
         <v>78</v>
       </c>
@@ -6459,7 +6458,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="81" spans="1:16" hidden="1" x14ac:dyDescent="0.3">
+    <row r="81" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A81">
         <v>79</v>
       </c>
@@ -6506,7 +6505,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="82" spans="1:16" hidden="1" x14ac:dyDescent="0.3">
+    <row r="82" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A82">
         <v>80</v>
       </c>
@@ -6553,7 +6552,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="83" spans="1:16" hidden="1" x14ac:dyDescent="0.3">
+    <row r="83" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A83">
         <v>81</v>
       </c>
@@ -6600,7 +6599,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="84" spans="1:16" hidden="1" x14ac:dyDescent="0.3">
+    <row r="84" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A84">
         <v>82</v>
       </c>
@@ -6647,7 +6646,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="85" spans="1:16" hidden="1" x14ac:dyDescent="0.3">
+    <row r="85" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A85">
         <v>83</v>
       </c>
@@ -6694,7 +6693,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="86" spans="1:16" hidden="1" x14ac:dyDescent="0.3">
+    <row r="86" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A86">
         <v>84</v>
       </c>
@@ -6741,7 +6740,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="87" spans="1:16" hidden="1" x14ac:dyDescent="0.3">
+    <row r="87" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A87">
         <v>85</v>
       </c>
@@ -6788,7 +6787,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="88" spans="1:16" hidden="1" x14ac:dyDescent="0.3">
+    <row r="88" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A88">
         <v>86</v>
       </c>
@@ -6835,7 +6834,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="89" spans="1:16" hidden="1" x14ac:dyDescent="0.3">
+    <row r="89" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A89">
         <v>87</v>
       </c>
@@ -6882,7 +6881,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="90" spans="1:16" hidden="1" x14ac:dyDescent="0.3">
+    <row r="90" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A90">
         <v>88</v>
       </c>
@@ -6929,7 +6928,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="91" spans="1:16" hidden="1" x14ac:dyDescent="0.3">
+    <row r="91" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A91">
         <v>89</v>
       </c>
@@ -6976,7 +6975,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="92" spans="1:16" hidden="1" x14ac:dyDescent="0.3">
+    <row r="92" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A92">
         <v>90</v>
       </c>
@@ -7023,7 +7022,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="93" spans="1:16" hidden="1" x14ac:dyDescent="0.3">
+    <row r="93" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A93">
         <v>91</v>
       </c>
@@ -7070,7 +7069,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="94" spans="1:16" hidden="1" x14ac:dyDescent="0.3">
+    <row r="94" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A94">
         <v>92</v>
       </c>
@@ -7117,7 +7116,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="95" spans="1:16" hidden="1" x14ac:dyDescent="0.3">
+    <row r="95" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A95">
         <v>93</v>
       </c>
@@ -7164,7 +7163,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="96" spans="1:16" hidden="1" x14ac:dyDescent="0.3">
+    <row r="96" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A96">
         <v>94</v>
       </c>
@@ -7211,7 +7210,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="97" spans="1:16" hidden="1" x14ac:dyDescent="0.3">
+    <row r="97" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A97">
         <v>95</v>
       </c>
@@ -7258,7 +7257,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="98" spans="1:16" hidden="1" x14ac:dyDescent="0.3">
+    <row r="98" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A98">
         <v>96</v>
       </c>
@@ -7305,7 +7304,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="99" spans="1:16" hidden="1" x14ac:dyDescent="0.3">
+    <row r="99" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A99">
         <v>97</v>
       </c>
@@ -7352,7 +7351,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="100" spans="1:16" hidden="1" x14ac:dyDescent="0.3">
+    <row r="100" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A100">
         <v>98</v>
       </c>
@@ -7399,7 +7398,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="101" spans="1:16" hidden="1" x14ac:dyDescent="0.3">
+    <row r="101" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A101">
         <v>99</v>
       </c>
@@ -7446,7 +7445,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="102" spans="1:16" hidden="1" x14ac:dyDescent="0.3">
+    <row r="102" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A102">
         <v>100</v>
       </c>
@@ -7493,7 +7492,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="103" spans="1:16" hidden="1" x14ac:dyDescent="0.3">
+    <row r="103" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A103">
         <v>101</v>
       </c>
@@ -7540,7 +7539,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="104" spans="1:16" hidden="1" x14ac:dyDescent="0.3">
+    <row r="104" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A104">
         <v>102</v>
       </c>
@@ -7587,7 +7586,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="105" spans="1:16" hidden="1" x14ac:dyDescent="0.3">
+    <row r="105" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A105">
         <v>103</v>
       </c>
@@ -7634,7 +7633,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="106" spans="1:16" hidden="1" x14ac:dyDescent="0.3">
+    <row r="106" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A106">
         <v>104</v>
       </c>
@@ -7681,7 +7680,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="107" spans="1:16" hidden="1" x14ac:dyDescent="0.3">
+    <row r="107" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A107">
         <v>105</v>
       </c>
@@ -7728,7 +7727,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="108" spans="1:16" hidden="1" x14ac:dyDescent="0.3">
+    <row r="108" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A108">
         <v>106</v>
       </c>
@@ -7775,7 +7774,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="109" spans="1:16" hidden="1" x14ac:dyDescent="0.3">
+    <row r="109" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A109">
         <v>107</v>
       </c>
@@ -7822,7 +7821,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="110" spans="1:16" hidden="1" x14ac:dyDescent="0.3">
+    <row r="110" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A110">
         <v>108</v>
       </c>
@@ -7869,7 +7868,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="111" spans="1:16" hidden="1" x14ac:dyDescent="0.3">
+    <row r="111" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A111">
         <v>109</v>
       </c>
@@ -7916,7 +7915,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="112" spans="1:16" hidden="1" x14ac:dyDescent="0.3">
+    <row r="112" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A112">
         <v>110</v>
       </c>
@@ -7963,7 +7962,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="113" spans="1:16" hidden="1" x14ac:dyDescent="0.3">
+    <row r="113" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A113">
         <v>111</v>
       </c>
@@ -8010,7 +8009,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="114" spans="1:16" hidden="1" x14ac:dyDescent="0.3">
+    <row r="114" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A114">
         <v>112</v>
       </c>
@@ -8057,7 +8056,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="115" spans="1:16" hidden="1" x14ac:dyDescent="0.3">
+    <row r="115" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A115">
         <v>113</v>
       </c>
@@ -8104,7 +8103,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="116" spans="1:16" hidden="1" x14ac:dyDescent="0.3">
+    <row r="116" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A116">
         <v>114</v>
       </c>
@@ -8151,7 +8150,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="117" spans="1:16" hidden="1" x14ac:dyDescent="0.3">
+    <row r="117" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A117">
         <v>115</v>
       </c>
@@ -8198,7 +8197,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="118" spans="1:16" hidden="1" x14ac:dyDescent="0.3">
+    <row r="118" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A118">
         <v>116</v>
       </c>
@@ -8245,7 +8244,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="119" spans="1:16" hidden="1" x14ac:dyDescent="0.3">
+    <row r="119" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A119">
         <v>117</v>
       </c>
@@ -8292,7 +8291,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="120" spans="1:16" hidden="1" x14ac:dyDescent="0.3">
+    <row r="120" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A120">
         <v>118</v>
       </c>
@@ -8339,7 +8338,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="121" spans="1:16" hidden="1" x14ac:dyDescent="0.3">
+    <row r="121" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A121">
         <v>119</v>
       </c>
@@ -8386,7 +8385,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="122" spans="1:16" hidden="1" x14ac:dyDescent="0.3">
+    <row r="122" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A122">
         <v>120</v>
       </c>
@@ -8433,7 +8432,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="123" spans="1:16" hidden="1" x14ac:dyDescent="0.3">
+    <row r="123" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A123">
         <v>121</v>
       </c>
@@ -8480,7 +8479,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="124" spans="1:16" hidden="1" x14ac:dyDescent="0.3">
+    <row r="124" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A124">
         <v>122</v>
       </c>
@@ -8527,7 +8526,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="125" spans="1:16" hidden="1" x14ac:dyDescent="0.3">
+    <row r="125" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A125">
         <v>123</v>
       </c>
@@ -8574,7 +8573,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="126" spans="1:16" hidden="1" x14ac:dyDescent="0.3">
+    <row r="126" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A126">
         <v>124</v>
       </c>
@@ -8621,7 +8620,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="127" spans="1:16" hidden="1" x14ac:dyDescent="0.3">
+    <row r="127" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A127">
         <v>125</v>
       </c>
@@ -8668,7 +8667,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="128" spans="1:16" hidden="1" x14ac:dyDescent="0.3">
+    <row r="128" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A128">
         <v>126</v>
       </c>
@@ -8715,7 +8714,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="129" spans="1:16" hidden="1" x14ac:dyDescent="0.3">
+    <row r="129" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A129">
         <v>127</v>
       </c>
@@ -8762,7 +8761,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="130" spans="1:16" hidden="1" x14ac:dyDescent="0.3">
+    <row r="130" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A130">
         <v>128</v>
       </c>
@@ -8809,7 +8808,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="131" spans="1:16" hidden="1" x14ac:dyDescent="0.3">
+    <row r="131" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A131">
         <v>129</v>
       </c>
@@ -8856,7 +8855,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="132" spans="1:16" hidden="1" x14ac:dyDescent="0.3">
+    <row r="132" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A132">
         <v>130</v>
       </c>
@@ -8903,7 +8902,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="133" spans="1:16" hidden="1" x14ac:dyDescent="0.3">
+    <row r="133" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A133">
         <v>131</v>
       </c>
@@ -8950,7 +8949,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="134" spans="1:16" hidden="1" x14ac:dyDescent="0.3">
+    <row r="134" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A134">
         <v>132</v>
       </c>
@@ -8997,7 +8996,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="135" spans="1:16" hidden="1" x14ac:dyDescent="0.3">
+    <row r="135" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A135">
         <v>133</v>
       </c>
@@ -9044,7 +9043,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="136" spans="1:16" hidden="1" x14ac:dyDescent="0.3">
+    <row r="136" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A136">
         <v>134</v>
       </c>
@@ -9091,7 +9090,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="137" spans="1:16" hidden="1" x14ac:dyDescent="0.3">
+    <row r="137" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A137">
         <v>135</v>
       </c>
@@ -9138,7 +9137,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="138" spans="1:16" hidden="1" x14ac:dyDescent="0.3">
+    <row r="138" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A138">
         <v>136</v>
       </c>
@@ -9185,7 +9184,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="139" spans="1:16" hidden="1" x14ac:dyDescent="0.3">
+    <row r="139" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A139">
         <v>137</v>
       </c>
@@ -9232,7 +9231,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="140" spans="1:16" hidden="1" x14ac:dyDescent="0.3">
+    <row r="140" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A140">
         <v>138</v>
       </c>
@@ -9279,7 +9278,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="141" spans="1:16" hidden="1" x14ac:dyDescent="0.3">
+    <row r="141" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A141">
         <v>139</v>
       </c>
@@ -9326,7 +9325,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="142" spans="1:16" hidden="1" x14ac:dyDescent="0.3">
+    <row r="142" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A142">
         <v>140</v>
       </c>
@@ -9373,7 +9372,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="143" spans="1:16" hidden="1" x14ac:dyDescent="0.3">
+    <row r="143" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A143">
         <v>141</v>
       </c>
@@ -9420,7 +9419,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="144" spans="1:16" hidden="1" x14ac:dyDescent="0.3">
+    <row r="144" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A144">
         <v>142</v>
       </c>
@@ -9467,7 +9466,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="145" spans="1:16" hidden="1" x14ac:dyDescent="0.3">
+    <row r="145" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A145">
         <v>143</v>
       </c>
@@ -9514,7 +9513,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="146" spans="1:16" hidden="1" x14ac:dyDescent="0.3">
+    <row r="146" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A146">
         <v>144</v>
       </c>
@@ -9561,7 +9560,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="147" spans="1:16" hidden="1" x14ac:dyDescent="0.3">
+    <row r="147" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A147">
         <v>145</v>
       </c>
@@ -9608,7 +9607,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="148" spans="1:16" hidden="1" x14ac:dyDescent="0.3">
+    <row r="148" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A148">
         <v>146</v>
       </c>
@@ -9655,7 +9654,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="149" spans="1:16" hidden="1" x14ac:dyDescent="0.3">
+    <row r="149" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A149">
         <v>147</v>
       </c>
@@ -9702,7 +9701,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="150" spans="1:16" hidden="1" x14ac:dyDescent="0.3">
+    <row r="150" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A150">
         <v>148</v>
       </c>
@@ -9749,7 +9748,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="151" spans="1:16" hidden="1" x14ac:dyDescent="0.3">
+    <row r="151" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A151">
         <v>149</v>
       </c>
@@ -9796,7 +9795,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="152" spans="1:16" hidden="1" x14ac:dyDescent="0.3">
+    <row r="152" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A152">
         <v>150</v>
       </c>
@@ -9843,7 +9842,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="153" spans="1:16" hidden="1" x14ac:dyDescent="0.3">
+    <row r="153" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A153">
         <v>151</v>
       </c>
@@ -9890,7 +9889,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="154" spans="1:16" hidden="1" x14ac:dyDescent="0.3">
+    <row r="154" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A154">
         <v>152</v>
       </c>
@@ -9937,7 +9936,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="155" spans="1:16" hidden="1" x14ac:dyDescent="0.3">
+    <row r="155" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A155">
         <v>153</v>
       </c>
@@ -9984,7 +9983,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="156" spans="1:16" hidden="1" x14ac:dyDescent="0.3">
+    <row r="156" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A156">
         <v>154</v>
       </c>
@@ -10031,7 +10030,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="157" spans="1:16" hidden="1" x14ac:dyDescent="0.3">
+    <row r="157" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A157">
         <v>155</v>
       </c>
@@ -10078,7 +10077,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="158" spans="1:16" hidden="1" x14ac:dyDescent="0.3">
+    <row r="158" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A158">
         <v>156</v>
       </c>
@@ -10125,7 +10124,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="159" spans="1:16" hidden="1" x14ac:dyDescent="0.3">
+    <row r="159" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A159">
         <v>157</v>
       </c>
@@ -10172,7 +10171,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="160" spans="1:16" hidden="1" x14ac:dyDescent="0.3">
+    <row r="160" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A160">
         <v>158</v>
       </c>
@@ -10219,7 +10218,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="161" spans="1:16" hidden="1" x14ac:dyDescent="0.3">
+    <row r="161" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A161">
         <v>159</v>
       </c>
@@ -10266,7 +10265,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="162" spans="1:16" hidden="1" x14ac:dyDescent="0.3">
+    <row r="162" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A162">
         <v>160</v>
       </c>
@@ -10313,7 +10312,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="163" spans="1:16" hidden="1" x14ac:dyDescent="0.3">
+    <row r="163" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A163">
         <v>161</v>
       </c>
@@ -10360,7 +10359,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="164" spans="1:16" hidden="1" x14ac:dyDescent="0.3">
+    <row r="164" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A164">
         <v>162</v>
       </c>
@@ -10407,7 +10406,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="165" spans="1:16" hidden="1" x14ac:dyDescent="0.3">
+    <row r="165" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A165">
         <v>163</v>
       </c>
@@ -10454,7 +10453,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="166" spans="1:16" hidden="1" x14ac:dyDescent="0.3">
+    <row r="166" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A166">
         <v>164</v>
       </c>
@@ -10501,7 +10500,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="167" spans="1:16" hidden="1" x14ac:dyDescent="0.3">
+    <row r="167" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A167">
         <v>165</v>
       </c>
@@ -10548,7 +10547,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="168" spans="1:16" hidden="1" x14ac:dyDescent="0.3">
+    <row r="168" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A168">
         <v>166</v>
       </c>
@@ -10595,7 +10594,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="169" spans="1:16" hidden="1" x14ac:dyDescent="0.3">
+    <row r="169" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A169">
         <v>167</v>
       </c>
@@ -10642,7 +10641,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="170" spans="1:16" hidden="1" x14ac:dyDescent="0.3">
+    <row r="170" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A170">
         <v>168</v>
       </c>
@@ -10689,7 +10688,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="171" spans="1:16" hidden="1" x14ac:dyDescent="0.3">
+    <row r="171" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A171">
         <v>169</v>
       </c>
@@ -10736,7 +10735,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="172" spans="1:16" hidden="1" x14ac:dyDescent="0.3">
+    <row r="172" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A172">
         <v>170</v>
       </c>
@@ -10783,7 +10782,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="173" spans="1:16" hidden="1" x14ac:dyDescent="0.3">
+    <row r="173" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A173">
         <v>171</v>
       </c>
@@ -10830,7 +10829,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="174" spans="1:16" hidden="1" x14ac:dyDescent="0.3">
+    <row r="174" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A174">
         <v>172</v>
       </c>
@@ -10877,7 +10876,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="175" spans="1:16" hidden="1" x14ac:dyDescent="0.3">
+    <row r="175" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A175">
         <v>173</v>
       </c>
@@ -10924,7 +10923,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="176" spans="1:16" hidden="1" x14ac:dyDescent="0.3">
+    <row r="176" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A176">
         <v>174</v>
       </c>
@@ -10971,7 +10970,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="177" spans="1:16" hidden="1" x14ac:dyDescent="0.3">
+    <row r="177" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A177">
         <v>175</v>
       </c>
@@ -11018,7 +11017,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="178" spans="1:16" hidden="1" x14ac:dyDescent="0.3">
+    <row r="178" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A178">
         <v>176</v>
       </c>
@@ -11065,7 +11064,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="179" spans="1:16" hidden="1" x14ac:dyDescent="0.3">
+    <row r="179" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A179">
         <v>177</v>
       </c>
@@ -11112,7 +11111,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="180" spans="1:16" hidden="1" x14ac:dyDescent="0.3">
+    <row r="180" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A180">
         <v>178</v>
       </c>
@@ -11159,7 +11158,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="181" spans="1:16" hidden="1" x14ac:dyDescent="0.3">
+    <row r="181" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A181">
         <v>179</v>
       </c>
@@ -11206,7 +11205,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="182" spans="1:16" hidden="1" x14ac:dyDescent="0.3">
+    <row r="182" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A182">
         <v>180</v>
       </c>
@@ -11253,7 +11252,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="183" spans="1:16" hidden="1" x14ac:dyDescent="0.3">
+    <row r="183" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A183">
         <v>181</v>
       </c>
@@ -11300,7 +11299,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="184" spans="1:16" hidden="1" x14ac:dyDescent="0.3">
+    <row r="184" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A184">
         <v>182</v>
       </c>
@@ -11347,7 +11346,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="185" spans="1:16" hidden="1" x14ac:dyDescent="0.3">
+    <row r="185" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A185">
         <v>183</v>
       </c>
@@ -11394,7 +11393,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="186" spans="1:16" hidden="1" x14ac:dyDescent="0.3">
+    <row r="186" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A186">
         <v>184</v>
       </c>
@@ -11441,7 +11440,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="187" spans="1:16" hidden="1" x14ac:dyDescent="0.3">
+    <row r="187" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A187">
         <v>185</v>
       </c>
@@ -11488,7 +11487,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="188" spans="1:16" hidden="1" x14ac:dyDescent="0.3">
+    <row r="188" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A188">
         <v>186</v>
       </c>
@@ -11535,7 +11534,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="189" spans="1:16" hidden="1" x14ac:dyDescent="0.3">
+    <row r="189" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A189">
         <v>187</v>
       </c>
@@ -11582,7 +11581,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="190" spans="1:16" hidden="1" x14ac:dyDescent="0.3">
+    <row r="190" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A190">
         <v>188</v>
       </c>
@@ -11629,7 +11628,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="191" spans="1:16" hidden="1" x14ac:dyDescent="0.3">
+    <row r="191" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A191">
         <v>189</v>
       </c>
@@ -11676,7 +11675,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="192" spans="1:16" hidden="1" x14ac:dyDescent="0.3">
+    <row r="192" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A192">
         <v>190</v>
       </c>
@@ -11723,7 +11722,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="193" spans="1:16" hidden="1" x14ac:dyDescent="0.3">
+    <row r="193" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A193">
         <v>191</v>
       </c>
@@ -11770,7 +11769,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="194" spans="1:16" hidden="1" x14ac:dyDescent="0.3">
+    <row r="194" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A194">
         <v>192</v>
       </c>
@@ -12005,7 +12004,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="199" spans="1:16" hidden="1" x14ac:dyDescent="0.3">
+    <row r="199" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A199">
         <v>197</v>
       </c>
@@ -12052,7 +12051,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="200" spans="1:16" hidden="1" x14ac:dyDescent="0.3">
+    <row r="200" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A200">
         <v>198</v>
       </c>
@@ -12099,7 +12098,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="201" spans="1:16" hidden="1" x14ac:dyDescent="0.3">
+    <row r="201" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A201">
         <v>199</v>
       </c>
@@ -12146,7 +12145,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="202" spans="1:16" hidden="1" x14ac:dyDescent="0.3">
+    <row r="202" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A202">
         <v>200</v>
       </c>
@@ -12193,7 +12192,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="203" spans="1:16" hidden="1" x14ac:dyDescent="0.3">
+    <row r="203" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A203">
         <v>201</v>
       </c>
@@ -12240,7 +12239,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="204" spans="1:16" hidden="1" x14ac:dyDescent="0.3">
+    <row r="204" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A204">
         <v>202</v>
       </c>
@@ -12522,7 +12521,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="210" spans="1:16" hidden="1" x14ac:dyDescent="0.3">
+    <row r="210" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A210">
         <v>208</v>
       </c>
@@ -12569,7 +12568,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="211" spans="1:16" hidden="1" x14ac:dyDescent="0.3">
+    <row r="211" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A211">
         <v>209</v>
       </c>
@@ -13086,7 +13085,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="222" spans="1:16" hidden="1" x14ac:dyDescent="0.3">
+    <row r="222" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A222">
         <v>220</v>
       </c>
@@ -13133,7 +13132,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="223" spans="1:16" hidden="1" x14ac:dyDescent="0.3">
+    <row r="223" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A223">
         <v>221</v>
       </c>
@@ -13180,7 +13179,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="224" spans="1:16" hidden="1" x14ac:dyDescent="0.3">
+    <row r="224" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A224">
         <v>222</v>
       </c>
@@ -13227,7 +13226,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="225" spans="1:16" hidden="1" x14ac:dyDescent="0.3">
+    <row r="225" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A225">
         <v>223</v>
       </c>
@@ -13274,7 +13273,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="226" spans="1:16" hidden="1" x14ac:dyDescent="0.3">
+    <row r="226" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A226">
         <v>224</v>
       </c>
@@ -13321,7 +13320,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="227" spans="1:16" hidden="1" x14ac:dyDescent="0.3">
+    <row r="227" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A227">
         <v>225</v>
       </c>
@@ -13368,7 +13367,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="228" spans="1:16" hidden="1" x14ac:dyDescent="0.3">
+    <row r="228" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A228">
         <v>226</v>
       </c>
@@ -13415,7 +13414,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="229" spans="1:16" hidden="1" x14ac:dyDescent="0.3">
+    <row r="229" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A229">
         <v>227</v>
       </c>
@@ -13603,7 +13602,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="233" spans="1:16" hidden="1" x14ac:dyDescent="0.3">
+    <row r="233" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A233">
         <v>231</v>
       </c>
@@ -13650,7 +13649,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="234" spans="1:16" hidden="1" x14ac:dyDescent="0.3">
+    <row r="234" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A234">
         <v>232</v>
       </c>
@@ -13697,7 +13696,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="235" spans="1:16" hidden="1" x14ac:dyDescent="0.3">
+    <row r="235" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A235">
         <v>233</v>
       </c>
@@ -13744,7 +13743,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="236" spans="1:16" hidden="1" x14ac:dyDescent="0.3">
+    <row r="236" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A236">
         <v>234</v>
       </c>
@@ -13791,7 +13790,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="237" spans="1:16" hidden="1" x14ac:dyDescent="0.3">
+    <row r="237" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A237">
         <v>235</v>
       </c>
@@ -13838,7 +13837,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="238" spans="1:16" hidden="1" x14ac:dyDescent="0.3">
+    <row r="238" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A238">
         <v>236</v>
       </c>
@@ -13885,7 +13884,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="239" spans="1:16" hidden="1" x14ac:dyDescent="0.3">
+    <row r="239" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A239">
         <v>237</v>
       </c>
@@ -13932,7 +13931,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="240" spans="1:16" hidden="1" x14ac:dyDescent="0.3">
+    <row r="240" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A240">
         <v>238</v>
       </c>
@@ -13979,7 +13978,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="241" spans="1:16" hidden="1" x14ac:dyDescent="0.3">
+    <row r="241" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A241">
         <v>239</v>
       </c>
@@ -14026,7 +14025,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="242" spans="1:16" hidden="1" x14ac:dyDescent="0.3">
+    <row r="242" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A242">
         <v>240</v>
       </c>
@@ -14073,7 +14072,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="243" spans="1:16" hidden="1" x14ac:dyDescent="0.3">
+    <row r="243" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A243">
         <v>241</v>
       </c>
@@ -14120,7 +14119,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="244" spans="1:16" hidden="1" x14ac:dyDescent="0.3">
+    <row r="244" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A244">
         <v>242</v>
       </c>
@@ -14167,7 +14166,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="245" spans="1:16" hidden="1" x14ac:dyDescent="0.3">
+    <row r="245" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A245">
         <v>243</v>
       </c>
@@ -14214,7 +14213,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="246" spans="1:16" hidden="1" x14ac:dyDescent="0.3">
+    <row r="246" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A246">
         <v>244</v>
       </c>
@@ -14261,7 +14260,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="247" spans="1:16" hidden="1" x14ac:dyDescent="0.3">
+    <row r="247" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A247">
         <v>245</v>
       </c>
@@ -14308,7 +14307,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="248" spans="1:16" hidden="1" x14ac:dyDescent="0.3">
+    <row r="248" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A248">
         <v>246</v>
       </c>
@@ -14355,7 +14354,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="249" spans="1:16" hidden="1" x14ac:dyDescent="0.3">
+    <row r="249" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A249">
         <v>247</v>
       </c>
@@ -14402,7 +14401,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="250" spans="1:16" hidden="1" x14ac:dyDescent="0.3">
+    <row r="250" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A250">
         <v>248</v>
       </c>
@@ -14449,7 +14448,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="251" spans="1:16" hidden="1" x14ac:dyDescent="0.3">
+    <row r="251" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A251">
         <v>249</v>
       </c>
@@ -14496,7 +14495,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="252" spans="1:16" hidden="1" x14ac:dyDescent="0.3">
+    <row r="252" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A252">
         <v>250</v>
       </c>
@@ -14543,7 +14542,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="253" spans="1:16" hidden="1" x14ac:dyDescent="0.3">
+    <row r="253" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A253">
         <v>251</v>
       </c>
@@ -14590,7 +14589,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="254" spans="1:16" hidden="1" x14ac:dyDescent="0.3">
+    <row r="254" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A254">
         <v>252</v>
       </c>
@@ -14637,7 +14636,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="255" spans="1:16" hidden="1" x14ac:dyDescent="0.3">
+    <row r="255" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A255">
         <v>253</v>
       </c>
@@ -14684,7 +14683,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="256" spans="1:16" hidden="1" x14ac:dyDescent="0.3">
+    <row r="256" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A256">
         <v>254</v>
       </c>
@@ -14731,7 +14730,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="257" spans="1:16" hidden="1" x14ac:dyDescent="0.3">
+    <row r="257" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A257">
         <v>255</v>
       </c>
@@ -14778,7 +14777,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="258" spans="1:16" hidden="1" x14ac:dyDescent="0.3">
+    <row r="258" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A258">
         <v>256</v>
       </c>
@@ -14825,7 +14824,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="259" spans="1:16" hidden="1" x14ac:dyDescent="0.3">
+    <row r="259" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A259">
         <v>257</v>
       </c>
@@ -14872,7 +14871,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="260" spans="1:16" hidden="1" x14ac:dyDescent="0.3">
+    <row r="260" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A260">
         <v>258</v>
       </c>
@@ -14919,7 +14918,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="261" spans="1:16" hidden="1" x14ac:dyDescent="0.3">
+    <row r="261" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A261">
         <v>259</v>
       </c>
@@ -14966,7 +14965,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="262" spans="1:16" hidden="1" x14ac:dyDescent="0.3">
+    <row r="262" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A262">
         <v>260</v>
       </c>
@@ -15013,7 +15012,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="263" spans="1:16" hidden="1" x14ac:dyDescent="0.3">
+    <row r="263" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A263">
         <v>261</v>
       </c>
@@ -15060,7 +15059,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="264" spans="1:16" hidden="1" x14ac:dyDescent="0.3">
+    <row r="264" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A264">
         <v>262</v>
       </c>
@@ -15107,7 +15106,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="265" spans="1:16" hidden="1" x14ac:dyDescent="0.3">
+    <row r="265" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A265">
         <v>263</v>
       </c>
@@ -15154,7 +15153,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="266" spans="1:16" hidden="1" x14ac:dyDescent="0.3">
+    <row r="266" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A266">
         <v>264</v>
       </c>
@@ -15201,7 +15200,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="267" spans="1:16" hidden="1" x14ac:dyDescent="0.3">
+    <row r="267" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A267">
         <v>265</v>
       </c>
@@ -15248,7 +15247,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="268" spans="1:16" hidden="1" x14ac:dyDescent="0.3">
+    <row r="268" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A268">
         <v>266</v>
       </c>
@@ -15295,7 +15294,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="269" spans="1:16" hidden="1" x14ac:dyDescent="0.3">
+    <row r="269" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A269">
         <v>267</v>
       </c>
@@ -15342,7 +15341,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="270" spans="1:16" hidden="1" x14ac:dyDescent="0.3">
+    <row r="270" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A270">
         <v>268</v>
       </c>
@@ -15389,7 +15388,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="271" spans="1:16" hidden="1" x14ac:dyDescent="0.3">
+    <row r="271" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A271">
         <v>269</v>
       </c>
@@ -15436,7 +15435,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="272" spans="1:16" hidden="1" x14ac:dyDescent="0.3">
+    <row r="272" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A272">
         <v>270</v>
       </c>
@@ -15483,7 +15482,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="273" spans="1:16" hidden="1" x14ac:dyDescent="0.3">
+    <row r="273" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A273">
         <v>271</v>
       </c>
@@ -15530,7 +15529,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="274" spans="1:16" hidden="1" x14ac:dyDescent="0.3">
+    <row r="274" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A274">
         <v>272</v>
       </c>
@@ -15577,7 +15576,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="275" spans="1:16" hidden="1" x14ac:dyDescent="0.3">
+    <row r="275" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A275">
         <v>273</v>
       </c>
@@ -15624,7 +15623,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="276" spans="1:16" hidden="1" x14ac:dyDescent="0.3">
+    <row r="276" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A276">
         <v>274</v>
       </c>
@@ -15671,7 +15670,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="277" spans="1:16" hidden="1" x14ac:dyDescent="0.3">
+    <row r="277" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A277">
         <v>275</v>
       </c>
@@ -15718,7 +15717,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="278" spans="1:16" hidden="1" x14ac:dyDescent="0.3">
+    <row r="278" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A278">
         <v>276</v>
       </c>
@@ -15765,7 +15764,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="279" spans="1:16" hidden="1" x14ac:dyDescent="0.3">
+    <row r="279" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A279">
         <v>277</v>
       </c>
@@ -15812,7 +15811,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="280" spans="1:16" hidden="1" x14ac:dyDescent="0.3">
+    <row r="280" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A280">
         <v>278</v>
       </c>
@@ -15859,7 +15858,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="281" spans="1:16" hidden="1" x14ac:dyDescent="0.3">
+    <row r="281" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A281">
         <v>279</v>
       </c>
@@ -15906,7 +15905,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="282" spans="1:16" hidden="1" x14ac:dyDescent="0.3">
+    <row r="282" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A282">
         <v>280</v>
       </c>
@@ -15953,7 +15952,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="283" spans="1:16" hidden="1" x14ac:dyDescent="0.3">
+    <row r="283" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A283">
         <v>281</v>
       </c>
@@ -16000,7 +15999,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="284" spans="1:16" hidden="1" x14ac:dyDescent="0.3">
+    <row r="284" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A284">
         <v>282</v>
       </c>
@@ -16047,7 +16046,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="285" spans="1:16" hidden="1" x14ac:dyDescent="0.3">
+    <row r="285" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A285">
         <v>283</v>
       </c>
@@ -16094,7 +16093,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="286" spans="1:16" hidden="1" x14ac:dyDescent="0.3">
+    <row r="286" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A286">
         <v>284</v>
       </c>
@@ -16141,7 +16140,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="287" spans="1:16" hidden="1" x14ac:dyDescent="0.3">
+    <row r="287" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A287">
         <v>285</v>
       </c>
@@ -16188,7 +16187,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="288" spans="1:16" hidden="1" x14ac:dyDescent="0.3">
+    <row r="288" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A288">
         <v>286</v>
       </c>
@@ -16235,7 +16234,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="289" spans="1:16" hidden="1" x14ac:dyDescent="0.3">
+    <row r="289" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A289">
         <v>287</v>
       </c>
@@ -16282,7 +16281,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="290" spans="1:16" hidden="1" x14ac:dyDescent="0.3">
+    <row r="290" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A290">
         <v>288</v>
       </c>
@@ -16329,7 +16328,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="291" spans="1:16" hidden="1" x14ac:dyDescent="0.3">
+    <row r="291" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A291">
         <v>289</v>
       </c>
@@ -16376,7 +16375,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="292" spans="1:16" hidden="1" x14ac:dyDescent="0.3">
+    <row r="292" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A292">
         <v>290</v>
       </c>
@@ -16423,7 +16422,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="293" spans="1:16" hidden="1" x14ac:dyDescent="0.3">
+    <row r="293" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A293">
         <v>291</v>
       </c>
@@ -16470,7 +16469,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="294" spans="1:16" hidden="1" x14ac:dyDescent="0.3">
+    <row r="294" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A294">
         <v>292</v>
       </c>
@@ -16517,7 +16516,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="295" spans="1:16" hidden="1" x14ac:dyDescent="0.3">
+    <row r="295" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A295">
         <v>293</v>
       </c>
@@ -16564,7 +16563,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="296" spans="1:16" hidden="1" x14ac:dyDescent="0.3">
+    <row r="296" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A296">
         <v>294</v>
       </c>
@@ -16611,7 +16610,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="297" spans="1:16" hidden="1" x14ac:dyDescent="0.3">
+    <row r="297" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A297">
         <v>295</v>
       </c>
@@ -16658,7 +16657,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="298" spans="1:16" hidden="1" x14ac:dyDescent="0.3">
+    <row r="298" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A298">
         <v>296</v>
       </c>
@@ -16705,7 +16704,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="299" spans="1:16" hidden="1" x14ac:dyDescent="0.3">
+    <row r="299" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A299">
         <v>297</v>
       </c>
@@ -16752,7 +16751,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="300" spans="1:16" hidden="1" x14ac:dyDescent="0.3">
+    <row r="300" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A300">
         <v>298</v>
       </c>
@@ -16799,7 +16798,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="301" spans="1:16" hidden="1" x14ac:dyDescent="0.3">
+    <row r="301" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A301">
         <v>299</v>
       </c>
@@ -16846,7 +16845,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="302" spans="1:16" hidden="1" x14ac:dyDescent="0.3">
+    <row r="302" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A302">
         <v>300</v>
       </c>
@@ -16893,7 +16892,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="303" spans="1:16" hidden="1" x14ac:dyDescent="0.3">
+    <row r="303" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A303">
         <v>301</v>
       </c>
@@ -16940,7 +16939,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="304" spans="1:16" hidden="1" x14ac:dyDescent="0.3">
+    <row r="304" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A304">
         <v>302</v>
       </c>
@@ -16987,7 +16986,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="305" spans="1:16" hidden="1" x14ac:dyDescent="0.3">
+    <row r="305" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A305">
         <v>303</v>
       </c>
@@ -17034,7 +17033,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="306" spans="1:16" hidden="1" x14ac:dyDescent="0.3">
+    <row r="306" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A306">
         <v>304</v>
       </c>
@@ -17081,7 +17080,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="307" spans="1:16" hidden="1" x14ac:dyDescent="0.3">
+    <row r="307" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A307">
         <v>305</v>
       </c>
@@ -17128,7 +17127,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="308" spans="1:16" hidden="1" x14ac:dyDescent="0.3">
+    <row r="308" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A308">
         <v>306</v>
       </c>
@@ -17175,7 +17174,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="309" spans="1:16" hidden="1" x14ac:dyDescent="0.3">
+    <row r="309" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A309">
         <v>307</v>
       </c>
@@ -17222,7 +17221,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="310" spans="1:16" hidden="1" x14ac:dyDescent="0.3">
+    <row r="310" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A310">
         <v>308</v>
       </c>
@@ -17269,7 +17268,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="311" spans="1:16" hidden="1" x14ac:dyDescent="0.3">
+    <row r="311" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A311">
         <v>309</v>
       </c>
@@ -17316,7 +17315,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="312" spans="1:16" hidden="1" x14ac:dyDescent="0.3">
+    <row r="312" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A312">
         <v>310</v>
       </c>
@@ -17363,7 +17362,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="313" spans="1:16" hidden="1" x14ac:dyDescent="0.3">
+    <row r="313" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A313">
         <v>311</v>
       </c>
@@ -17410,7 +17409,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="314" spans="1:16" hidden="1" x14ac:dyDescent="0.3">
+    <row r="314" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A314">
         <v>312</v>
       </c>
@@ -17457,7 +17456,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="315" spans="1:16" hidden="1" x14ac:dyDescent="0.3">
+    <row r="315" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A315">
         <v>313</v>
       </c>
@@ -17504,7 +17503,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="316" spans="1:16" hidden="1" x14ac:dyDescent="0.3">
+    <row r="316" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A316">
         <v>314</v>
       </c>
@@ -17551,7 +17550,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="317" spans="1:16" hidden="1" x14ac:dyDescent="0.3">
+    <row r="317" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A317">
         <v>315</v>
       </c>
@@ -17598,7 +17597,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="318" spans="1:16" hidden="1" x14ac:dyDescent="0.3">
+    <row r="318" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A318">
         <v>316</v>
       </c>
@@ -17645,7 +17644,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="319" spans="1:16" hidden="1" x14ac:dyDescent="0.3">
+    <row r="319" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A319">
         <v>317</v>
       </c>
@@ -17692,7 +17691,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="320" spans="1:16" hidden="1" x14ac:dyDescent="0.3">
+    <row r="320" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A320">
         <v>318</v>
       </c>
@@ -17739,7 +17738,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="321" spans="1:16" hidden="1" x14ac:dyDescent="0.3">
+    <row r="321" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A321">
         <v>319</v>
       </c>
@@ -17786,7 +17785,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="322" spans="1:16" hidden="1" x14ac:dyDescent="0.3">
+    <row r="322" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A322">
         <v>320</v>
       </c>
@@ -17833,7 +17832,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="323" spans="1:16" hidden="1" x14ac:dyDescent="0.3">
+    <row r="323" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A323">
         <v>321</v>
       </c>
@@ -17880,7 +17879,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="324" spans="1:16" hidden="1" x14ac:dyDescent="0.3">
+    <row r="324" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A324">
         <v>322</v>
       </c>
@@ -17927,7 +17926,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="325" spans="1:16" hidden="1" x14ac:dyDescent="0.3">
+    <row r="325" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A325">
         <v>323</v>
       </c>
@@ -17974,7 +17973,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="326" spans="1:16" hidden="1" x14ac:dyDescent="0.3">
+    <row r="326" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A326">
         <v>324</v>
       </c>
@@ -18021,7 +18020,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="327" spans="1:16" hidden="1" x14ac:dyDescent="0.3">
+    <row r="327" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A327">
         <v>325</v>
       </c>
@@ -18068,7 +18067,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="328" spans="1:16" hidden="1" x14ac:dyDescent="0.3">
+    <row r="328" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A328">
         <v>326</v>
       </c>
@@ -18115,7 +18114,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="329" spans="1:16" hidden="1" x14ac:dyDescent="0.3">
+    <row r="329" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A329">
         <v>327</v>
       </c>
@@ -18162,7 +18161,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="330" spans="1:16" hidden="1" x14ac:dyDescent="0.3">
+    <row r="330" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A330">
         <v>328</v>
       </c>
@@ -18209,7 +18208,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="331" spans="1:16" hidden="1" x14ac:dyDescent="0.3">
+    <row r="331" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A331">
         <v>329</v>
       </c>
@@ -18256,7 +18255,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="332" spans="1:16" hidden="1" x14ac:dyDescent="0.3">
+    <row r="332" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A332">
         <v>330</v>
       </c>
@@ -18303,7 +18302,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="333" spans="1:16" hidden="1" x14ac:dyDescent="0.3">
+    <row r="333" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A333">
         <v>331</v>
       </c>
@@ -18350,7 +18349,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="334" spans="1:16" hidden="1" x14ac:dyDescent="0.3">
+    <row r="334" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A334">
         <v>332</v>
       </c>
@@ -18397,7 +18396,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="335" spans="1:16" hidden="1" x14ac:dyDescent="0.3">
+    <row r="335" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A335">
         <v>333</v>
       </c>
@@ -18444,7 +18443,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="336" spans="1:16" hidden="1" x14ac:dyDescent="0.3">
+    <row r="336" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A336">
         <v>334</v>
       </c>
@@ -18491,7 +18490,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="337" spans="1:16" hidden="1" x14ac:dyDescent="0.3">
+    <row r="337" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A337">
         <v>335</v>
       </c>
@@ -18538,7 +18537,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="338" spans="1:16" hidden="1" x14ac:dyDescent="0.3">
+    <row r="338" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A338">
         <v>336</v>
       </c>
@@ -18585,7 +18584,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="339" spans="1:16" hidden="1" x14ac:dyDescent="0.3">
+    <row r="339" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A339">
         <v>337</v>
       </c>
@@ -18632,7 +18631,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="340" spans="1:16" hidden="1" x14ac:dyDescent="0.3">
+    <row r="340" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A340">
         <v>338</v>
       </c>
@@ -18679,7 +18678,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="341" spans="1:16" hidden="1" x14ac:dyDescent="0.3">
+    <row r="341" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A341">
         <v>339</v>
       </c>
@@ -18726,7 +18725,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="342" spans="1:16" hidden="1" x14ac:dyDescent="0.3">
+    <row r="342" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A342">
         <v>340</v>
       </c>
@@ -18773,7 +18772,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="343" spans="1:16" hidden="1" x14ac:dyDescent="0.3">
+    <row r="343" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A343">
         <v>341</v>
       </c>
@@ -18820,7 +18819,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="344" spans="1:16" hidden="1" x14ac:dyDescent="0.3">
+    <row r="344" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A344">
         <v>342</v>
       </c>
@@ -18867,7 +18866,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="345" spans="1:16" hidden="1" x14ac:dyDescent="0.3">
+    <row r="345" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A345">
         <v>343</v>
       </c>
@@ -18914,7 +18913,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="346" spans="1:16" hidden="1" x14ac:dyDescent="0.3">
+    <row r="346" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A346">
         <v>344</v>
       </c>
@@ -18961,7 +18960,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="347" spans="1:16" hidden="1" x14ac:dyDescent="0.3">
+    <row r="347" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A347">
         <v>345</v>
       </c>
@@ -19008,7 +19007,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="348" spans="1:16" hidden="1" x14ac:dyDescent="0.3">
+    <row r="348" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A348">
         <v>346</v>
       </c>
@@ -19055,7 +19054,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="349" spans="1:16" hidden="1" x14ac:dyDescent="0.3">
+    <row r="349" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A349">
         <v>347</v>
       </c>
@@ -19102,7 +19101,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="350" spans="1:16" hidden="1" x14ac:dyDescent="0.3">
+    <row r="350" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A350">
         <v>348</v>
       </c>
@@ -19149,7 +19148,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="351" spans="1:16" hidden="1" x14ac:dyDescent="0.3">
+    <row r="351" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A351">
         <v>349</v>
       </c>
@@ -19196,7 +19195,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="352" spans="1:16" hidden="1" x14ac:dyDescent="0.3">
+    <row r="352" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A352">
         <v>350</v>
       </c>
@@ -19243,7 +19242,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="353" spans="1:16" hidden="1" x14ac:dyDescent="0.3">
+    <row r="353" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A353">
         <v>351</v>
       </c>
@@ -19290,7 +19289,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="354" spans="1:16" hidden="1" x14ac:dyDescent="0.3">
+    <row r="354" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A354">
         <v>352</v>
       </c>
@@ -19337,7 +19336,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="355" spans="1:16" hidden="1" x14ac:dyDescent="0.3">
+    <row r="355" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A355">
         <v>353</v>
       </c>
@@ -19384,7 +19383,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="356" spans="1:16" hidden="1" x14ac:dyDescent="0.3">
+    <row r="356" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A356">
         <v>354</v>
       </c>
@@ -19431,7 +19430,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="357" spans="1:16" hidden="1" x14ac:dyDescent="0.3">
+    <row r="357" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A357">
         <v>355</v>
       </c>
@@ -19478,7 +19477,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="358" spans="1:16" hidden="1" x14ac:dyDescent="0.3">
+    <row r="358" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A358">
         <v>356</v>
       </c>
@@ -19525,7 +19524,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="359" spans="1:16" hidden="1" x14ac:dyDescent="0.3">
+    <row r="359" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A359">
         <v>357</v>
       </c>
@@ -19572,7 +19571,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="360" spans="1:16" hidden="1" x14ac:dyDescent="0.3">
+    <row r="360" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A360">
         <v>358</v>
       </c>
@@ -19619,7 +19618,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="361" spans="1:16" hidden="1" x14ac:dyDescent="0.3">
+    <row r="361" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A361">
         <v>359</v>
       </c>
@@ -19666,7 +19665,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="362" spans="1:16" hidden="1" x14ac:dyDescent="0.3">
+    <row r="362" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A362">
         <v>360</v>
       </c>
@@ -19713,7 +19712,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="363" spans="1:16" hidden="1" x14ac:dyDescent="0.3">
+    <row r="363" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A363">
         <v>361</v>
       </c>
@@ -19760,7 +19759,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="364" spans="1:16" hidden="1" x14ac:dyDescent="0.3">
+    <row r="364" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A364">
         <v>362</v>
       </c>
@@ -19807,7 +19806,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="365" spans="1:16" hidden="1" x14ac:dyDescent="0.3">
+    <row r="365" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A365">
         <v>363</v>
       </c>
@@ -19854,7 +19853,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="366" spans="1:16" hidden="1" x14ac:dyDescent="0.3">
+    <row r="366" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A366">
         <v>364</v>
       </c>
@@ -19901,7 +19900,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="367" spans="1:16" hidden="1" x14ac:dyDescent="0.3">
+    <row r="367" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A367">
         <v>365</v>
       </c>
@@ -19948,7 +19947,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="368" spans="1:16" hidden="1" x14ac:dyDescent="0.3">
+    <row r="368" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A368">
         <v>366</v>
       </c>
@@ -19995,7 +19994,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="369" spans="1:16" hidden="1" x14ac:dyDescent="0.3">
+    <row r="369" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A369">
         <v>367</v>
       </c>
@@ -20042,7 +20041,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="370" spans="1:16" hidden="1" x14ac:dyDescent="0.3">
+    <row r="370" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A370">
         <v>368</v>
       </c>
@@ -20089,7 +20088,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="371" spans="1:16" hidden="1" x14ac:dyDescent="0.3">
+    <row r="371" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A371">
         <v>369</v>
       </c>
@@ -20136,7 +20135,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="372" spans="1:16" hidden="1" x14ac:dyDescent="0.3">
+    <row r="372" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A372">
         <v>370</v>
       </c>
@@ -20183,7 +20182,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="373" spans="1:16" hidden="1" x14ac:dyDescent="0.3">
+    <row r="373" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A373">
         <v>371</v>
       </c>
@@ -20230,7 +20229,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="374" spans="1:16" hidden="1" x14ac:dyDescent="0.3">
+    <row r="374" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A374">
         <v>372</v>
       </c>
@@ -20277,7 +20276,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="375" spans="1:16" hidden="1" x14ac:dyDescent="0.3">
+    <row r="375" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A375">
         <v>373</v>
       </c>
@@ -20324,7 +20323,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="376" spans="1:16" hidden="1" x14ac:dyDescent="0.3">
+    <row r="376" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A376">
         <v>374</v>
       </c>
@@ -20371,7 +20370,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="377" spans="1:16" hidden="1" x14ac:dyDescent="0.3">
+    <row r="377" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A377">
         <v>375</v>
       </c>
@@ -20418,7 +20417,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="378" spans="1:16" hidden="1" x14ac:dyDescent="0.3">
+    <row r="378" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A378">
         <v>376</v>
       </c>
@@ -20465,7 +20464,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="379" spans="1:16" hidden="1" x14ac:dyDescent="0.3">
+    <row r="379" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A379">
         <v>377</v>
       </c>
@@ -20512,7 +20511,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="380" spans="1:16" hidden="1" x14ac:dyDescent="0.3">
+    <row r="380" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A380">
         <v>378</v>
       </c>
@@ -20559,7 +20558,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="381" spans="1:16" hidden="1" x14ac:dyDescent="0.3">
+    <row r="381" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A381">
         <v>379</v>
       </c>
@@ -20606,7 +20605,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="382" spans="1:16" hidden="1" x14ac:dyDescent="0.3">
+    <row r="382" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A382">
         <v>380</v>
       </c>
@@ -20653,7 +20652,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="383" spans="1:16" hidden="1" x14ac:dyDescent="0.3">
+    <row r="383" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A383">
         <v>381</v>
       </c>
@@ -20700,7 +20699,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="384" spans="1:16" hidden="1" x14ac:dyDescent="0.3">
+    <row r="384" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A384">
         <v>382</v>
       </c>
@@ -20747,7 +20746,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="385" spans="1:16" hidden="1" x14ac:dyDescent="0.3">
+    <row r="385" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A385">
         <v>383</v>
       </c>
@@ -20794,7 +20793,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="386" spans="1:16" hidden="1" x14ac:dyDescent="0.3">
+    <row r="386" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A386">
         <v>384</v>
       </c>
@@ -20841,7 +20840,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="387" spans="1:16" hidden="1" x14ac:dyDescent="0.3">
+    <row r="387" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A387">
         <v>385</v>
       </c>
@@ -20888,7 +20887,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="388" spans="1:16" hidden="1" x14ac:dyDescent="0.3">
+    <row r="388" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A388">
         <v>386</v>
       </c>
@@ -20935,7 +20934,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="389" spans="1:16" hidden="1" x14ac:dyDescent="0.3">
+    <row r="389" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A389">
         <v>387</v>
       </c>
@@ -20982,7 +20981,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="390" spans="1:16" hidden="1" x14ac:dyDescent="0.3">
+    <row r="390" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A390">
         <v>388</v>
       </c>
@@ -21029,7 +21028,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="391" spans="1:16" hidden="1" x14ac:dyDescent="0.3">
+    <row r="391" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A391">
         <v>389</v>
       </c>
@@ -21076,7 +21075,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="392" spans="1:16" hidden="1" x14ac:dyDescent="0.3">
+    <row r="392" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A392">
         <v>390</v>
       </c>
@@ -21123,7 +21122,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="393" spans="1:16" hidden="1" x14ac:dyDescent="0.3">
+    <row r="393" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A393">
         <v>391</v>
       </c>
@@ -21170,7 +21169,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="394" spans="1:16" hidden="1" x14ac:dyDescent="0.3">
+    <row r="394" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A394">
         <v>392</v>
       </c>
@@ -21217,7 +21216,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="395" spans="1:16" hidden="1" x14ac:dyDescent="0.3">
+    <row r="395" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A395">
         <v>393</v>
       </c>
@@ -21264,7 +21263,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="396" spans="1:16" hidden="1" x14ac:dyDescent="0.3">
+    <row r="396" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A396">
         <v>394</v>
       </c>
@@ -21311,7 +21310,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="397" spans="1:16" hidden="1" x14ac:dyDescent="0.3">
+    <row r="397" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A397">
         <v>395</v>
       </c>
@@ -21358,7 +21357,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="398" spans="1:16" hidden="1" x14ac:dyDescent="0.3">
+    <row r="398" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A398">
         <v>396</v>
       </c>
@@ -21405,7 +21404,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="399" spans="1:16" hidden="1" x14ac:dyDescent="0.3">
+    <row r="399" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A399">
         <v>397</v>
       </c>
@@ -21452,7 +21451,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="400" spans="1:16" hidden="1" x14ac:dyDescent="0.3">
+    <row r="400" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A400">
         <v>398</v>
       </c>
@@ -21499,7 +21498,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="401" spans="1:16" hidden="1" x14ac:dyDescent="0.3">
+    <row r="401" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A401">
         <v>399</v>
       </c>
@@ -21546,7 +21545,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="402" spans="1:16" hidden="1" x14ac:dyDescent="0.3">
+    <row r="402" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A402">
         <v>400</v>
       </c>
@@ -21593,7 +21592,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="403" spans="1:16" hidden="1" x14ac:dyDescent="0.3">
+    <row r="403" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A403">
         <v>401</v>
       </c>
@@ -21640,7 +21639,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="404" spans="1:16" hidden="1" x14ac:dyDescent="0.3">
+    <row r="404" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A404">
         <v>402</v>
       </c>
@@ -21687,7 +21686,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="405" spans="1:16" hidden="1" x14ac:dyDescent="0.3">
+    <row r="405" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A405">
         <v>403</v>
       </c>
@@ -21734,7 +21733,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="406" spans="1:16" hidden="1" x14ac:dyDescent="0.3">
+    <row r="406" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A406">
         <v>404</v>
       </c>
@@ -21781,7 +21780,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="407" spans="1:16" hidden="1" x14ac:dyDescent="0.3">
+    <row r="407" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A407">
         <v>405</v>
       </c>
@@ -21828,7 +21827,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="408" spans="1:16" hidden="1" x14ac:dyDescent="0.3">
+    <row r="408" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A408">
         <v>406</v>
       </c>
@@ -21875,7 +21874,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="409" spans="1:16" hidden="1" x14ac:dyDescent="0.3">
+    <row r="409" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A409">
         <v>407</v>
       </c>
@@ -21922,7 +21921,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="410" spans="1:16" hidden="1" x14ac:dyDescent="0.3">
+    <row r="410" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A410">
         <v>408</v>
       </c>
@@ -21969,7 +21968,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="411" spans="1:16" hidden="1" x14ac:dyDescent="0.3">
+    <row r="411" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A411">
         <v>409</v>
       </c>
@@ -22016,7 +22015,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="412" spans="1:16" hidden="1" x14ac:dyDescent="0.3">
+    <row r="412" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A412">
         <v>410</v>
       </c>
@@ -22063,7 +22062,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="413" spans="1:16" hidden="1" x14ac:dyDescent="0.3">
+    <row r="413" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A413">
         <v>411</v>
       </c>
@@ -22110,7 +22109,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="414" spans="1:16" hidden="1" x14ac:dyDescent="0.3">
+    <row r="414" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A414">
         <v>412</v>
       </c>
@@ -22157,7 +22156,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="415" spans="1:16" hidden="1" x14ac:dyDescent="0.3">
+    <row r="415" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A415">
         <v>413</v>
       </c>
@@ -22204,7 +22203,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="416" spans="1:16" hidden="1" x14ac:dyDescent="0.3">
+    <row r="416" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A416">
         <v>414</v>
       </c>
@@ -22251,7 +22250,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="417" spans="1:16" hidden="1" x14ac:dyDescent="0.3">
+    <row r="417" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A417">
         <v>415</v>
       </c>
@@ -22298,7 +22297,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="418" spans="1:16" hidden="1" x14ac:dyDescent="0.3">
+    <row r="418" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A418">
         <v>416</v>
       </c>
@@ -22345,7 +22344,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="419" spans="1:16" hidden="1" x14ac:dyDescent="0.3">
+    <row r="419" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A419">
         <v>417</v>
       </c>
@@ -22392,7 +22391,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="420" spans="1:16" hidden="1" x14ac:dyDescent="0.3">
+    <row r="420" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A420">
         <v>418</v>
       </c>
@@ -22439,7 +22438,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="421" spans="1:16" hidden="1" x14ac:dyDescent="0.3">
+    <row r="421" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A421">
         <v>419</v>
       </c>
@@ -22486,7 +22485,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="422" spans="1:16" hidden="1" x14ac:dyDescent="0.3">
+    <row r="422" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A422">
         <v>420</v>
       </c>
@@ -22533,7 +22532,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="423" spans="1:16" hidden="1" x14ac:dyDescent="0.3">
+    <row r="423" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A423">
         <v>421</v>
       </c>
@@ -22580,7 +22579,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="424" spans="1:16" hidden="1" x14ac:dyDescent="0.3">
+    <row r="424" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A424">
         <v>422</v>
       </c>
@@ -22627,7 +22626,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="425" spans="1:16" hidden="1" x14ac:dyDescent="0.3">
+    <row r="425" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A425">
         <v>423</v>
       </c>
@@ -22674,7 +22673,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="426" spans="1:16" hidden="1" x14ac:dyDescent="0.3">
+    <row r="426" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A426">
         <v>424</v>
       </c>
@@ -22721,7 +22720,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="427" spans="1:16" hidden="1" x14ac:dyDescent="0.3">
+    <row r="427" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A427">
         <v>425</v>
       </c>
@@ -22768,7 +22767,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="428" spans="1:16" hidden="1" x14ac:dyDescent="0.3">
+    <row r="428" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A428">
         <v>426</v>
       </c>
@@ -22815,7 +22814,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="429" spans="1:16" hidden="1" x14ac:dyDescent="0.3">
+    <row r="429" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A429">
         <v>427</v>
       </c>
@@ -22862,7 +22861,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="430" spans="1:16" hidden="1" x14ac:dyDescent="0.3">
+    <row r="430" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A430">
         <v>428</v>
       </c>
@@ -22909,7 +22908,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="431" spans="1:16" hidden="1" x14ac:dyDescent="0.3">
+    <row r="431" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A431">
         <v>429</v>
       </c>
@@ -22956,7 +22955,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="432" spans="1:16" hidden="1" x14ac:dyDescent="0.3">
+    <row r="432" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A432">
         <v>430</v>
       </c>
@@ -23003,7 +23002,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="433" spans="1:16" hidden="1" x14ac:dyDescent="0.3">
+    <row r="433" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A433">
         <v>431</v>
       </c>
@@ -23050,7 +23049,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="434" spans="1:16" hidden="1" x14ac:dyDescent="0.3">
+    <row r="434" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A434">
         <v>432</v>
       </c>
@@ -23097,7 +23096,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="435" spans="1:16" hidden="1" x14ac:dyDescent="0.3">
+    <row r="435" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A435">
         <v>433</v>
       </c>
@@ -23144,7 +23143,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="436" spans="1:16" hidden="1" x14ac:dyDescent="0.3">
+    <row r="436" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A436">
         <v>434</v>
       </c>
@@ -23191,7 +23190,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="437" spans="1:16" hidden="1" x14ac:dyDescent="0.3">
+    <row r="437" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A437">
         <v>435</v>
       </c>
@@ -23238,7 +23237,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="438" spans="1:16" hidden="1" x14ac:dyDescent="0.3">
+    <row r="438" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A438">
         <v>436</v>
       </c>
@@ -23285,7 +23284,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="439" spans="1:16" hidden="1" x14ac:dyDescent="0.3">
+    <row r="439" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A439">
         <v>437</v>
       </c>
@@ -23332,7 +23331,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="440" spans="1:16" hidden="1" x14ac:dyDescent="0.3">
+    <row r="440" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A440">
         <v>438</v>
       </c>
@@ -23379,7 +23378,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="441" spans="1:16" hidden="1" x14ac:dyDescent="0.3">
+    <row r="441" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A441">
         <v>439</v>
       </c>
@@ -23426,7 +23425,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="442" spans="1:16" hidden="1" x14ac:dyDescent="0.3">
+    <row r="442" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A442">
         <v>440</v>
       </c>
@@ -23473,7 +23472,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="443" spans="1:16" hidden="1" x14ac:dyDescent="0.3">
+    <row r="443" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A443">
         <v>441</v>
       </c>
@@ -23520,7 +23519,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="444" spans="1:16" hidden="1" x14ac:dyDescent="0.3">
+    <row r="444" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A444">
         <v>442</v>
       </c>
@@ -23567,7 +23566,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="445" spans="1:16" hidden="1" x14ac:dyDescent="0.3">
+    <row r="445" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A445">
         <v>443</v>
       </c>
@@ -23614,7 +23613,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="446" spans="1:16" hidden="1" x14ac:dyDescent="0.3">
+    <row r="446" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A446">
         <v>444</v>
       </c>
@@ -23661,7 +23660,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="447" spans="1:16" hidden="1" x14ac:dyDescent="0.3">
+    <row r="447" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A447">
         <v>445</v>
       </c>
@@ -23708,7 +23707,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="448" spans="1:16" hidden="1" x14ac:dyDescent="0.3">
+    <row r="448" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A448">
         <v>446</v>
       </c>
@@ -23755,7 +23754,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="449" spans="1:16" hidden="1" x14ac:dyDescent="0.3">
+    <row r="449" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A449">
         <v>447</v>
       </c>
@@ -23802,7 +23801,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="450" spans="1:16" hidden="1" x14ac:dyDescent="0.3">
+    <row r="450" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A450">
         <v>448</v>
       </c>
@@ -23849,7 +23848,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="451" spans="1:16" hidden="1" x14ac:dyDescent="0.3">
+    <row r="451" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A451">
         <v>449</v>
       </c>
@@ -23896,7 +23895,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="452" spans="1:16" hidden="1" x14ac:dyDescent="0.3">
+    <row r="452" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A452">
         <v>450</v>
       </c>
@@ -23943,7 +23942,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="453" spans="1:16" hidden="1" x14ac:dyDescent="0.3">
+    <row r="453" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A453">
         <v>451</v>
       </c>
@@ -23990,7 +23989,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="454" spans="1:16" hidden="1" x14ac:dyDescent="0.3">
+    <row r="454" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A454">
         <v>452</v>
       </c>
@@ -24037,7 +24036,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="455" spans="1:16" hidden="1" x14ac:dyDescent="0.3">
+    <row r="455" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A455">
         <v>453</v>
       </c>
@@ -24084,7 +24083,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="456" spans="1:16" hidden="1" x14ac:dyDescent="0.3">
+    <row r="456" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A456">
         <v>454</v>
       </c>
@@ -24131,7 +24130,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="457" spans="1:16" hidden="1" x14ac:dyDescent="0.3">
+    <row r="457" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A457">
         <v>455</v>
       </c>
@@ -24178,7 +24177,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="458" spans="1:16" hidden="1" x14ac:dyDescent="0.3">
+    <row r="458" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A458">
         <v>456</v>
       </c>
@@ -24272,7 +24271,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="460" spans="1:16" hidden="1" x14ac:dyDescent="0.3">
+    <row r="460" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A460">
         <v>458</v>
       </c>
@@ -24319,7 +24318,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="461" spans="1:16" hidden="1" x14ac:dyDescent="0.3">
+    <row r="461" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A461">
         <v>459</v>
       </c>
@@ -24366,7 +24365,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="462" spans="1:16" hidden="1" x14ac:dyDescent="0.3">
+    <row r="462" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A462">
         <v>460</v>
       </c>
@@ -24413,7 +24412,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="463" spans="1:16" hidden="1" x14ac:dyDescent="0.3">
+    <row r="463" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A463">
         <v>461</v>
       </c>
@@ -24460,7 +24459,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="464" spans="1:16" hidden="1" x14ac:dyDescent="0.3">
+    <row r="464" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A464">
         <v>462</v>
       </c>
@@ -24507,7 +24506,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="465" spans="1:16" hidden="1" x14ac:dyDescent="0.3">
+    <row r="465" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A465">
         <v>463</v>
       </c>
@@ -24554,7 +24553,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="466" spans="1:16" hidden="1" x14ac:dyDescent="0.3">
+    <row r="466" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A466">
         <v>464</v>
       </c>
@@ -24601,7 +24600,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="467" spans="1:16" hidden="1" x14ac:dyDescent="0.3">
+    <row r="467" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A467">
         <v>465</v>
       </c>
@@ -24648,7 +24647,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="468" spans="1:16" hidden="1" x14ac:dyDescent="0.3">
+    <row r="468" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A468">
         <v>466</v>
       </c>
@@ -24695,7 +24694,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="469" spans="1:16" hidden="1" x14ac:dyDescent="0.3">
+    <row r="469" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A469">
         <v>467</v>
       </c>
@@ -24742,7 +24741,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="470" spans="1:16" hidden="1" x14ac:dyDescent="0.3">
+    <row r="470" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A470">
         <v>468</v>
       </c>
@@ -24789,7 +24788,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="471" spans="1:16" hidden="1" x14ac:dyDescent="0.3">
+    <row r="471" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A471">
         <v>469</v>
       </c>
@@ -24836,7 +24835,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="472" spans="1:16" hidden="1" x14ac:dyDescent="0.3">
+    <row r="472" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A472">
         <v>470</v>
       </c>
@@ -24883,7 +24882,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="473" spans="1:16" hidden="1" x14ac:dyDescent="0.3">
+    <row r="473" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A473">
         <v>471</v>
       </c>
@@ -24930,7 +24929,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="474" spans="1:16" hidden="1" x14ac:dyDescent="0.3">
+    <row r="474" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A474">
         <v>472</v>
       </c>
@@ -24977,7 +24976,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="475" spans="1:16" hidden="1" x14ac:dyDescent="0.3">
+    <row r="475" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A475">
         <v>473</v>
       </c>
@@ -25024,7 +25023,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="476" spans="1:16" hidden="1" x14ac:dyDescent="0.3">
+    <row r="476" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A476">
         <v>474</v>
       </c>
@@ -25071,7 +25070,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="477" spans="1:16" hidden="1" x14ac:dyDescent="0.3">
+    <row r="477" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A477">
         <v>475</v>
       </c>
@@ -25118,7 +25117,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="478" spans="1:16" hidden="1" x14ac:dyDescent="0.3">
+    <row r="478" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A478">
         <v>476</v>
       </c>
@@ -25165,7 +25164,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="479" spans="1:16" hidden="1" x14ac:dyDescent="0.3">
+    <row r="479" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A479">
         <v>477</v>
       </c>
@@ -25212,7 +25211,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="480" spans="1:16" hidden="1" x14ac:dyDescent="0.3">
+    <row r="480" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A480">
         <v>478</v>
       </c>
@@ -25259,7 +25258,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="481" spans="1:16" hidden="1" x14ac:dyDescent="0.3">
+    <row r="481" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A481">
         <v>479</v>
       </c>
@@ -25306,7 +25305,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="482" spans="1:16" hidden="1" x14ac:dyDescent="0.3">
+    <row r="482" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A482">
         <v>480</v>
       </c>
@@ -25353,7 +25352,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="483" spans="1:16" hidden="1" x14ac:dyDescent="0.3">
+    <row r="483" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A483">
         <v>481</v>
       </c>
@@ -25400,7 +25399,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="484" spans="1:16" hidden="1" x14ac:dyDescent="0.3">
+    <row r="484" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A484">
         <v>482</v>
       </c>
@@ -25447,7 +25446,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="485" spans="1:16" hidden="1" x14ac:dyDescent="0.3">
+    <row r="485" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A485">
         <v>483</v>
       </c>
@@ -25494,7 +25493,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="486" spans="1:16" hidden="1" x14ac:dyDescent="0.3">
+    <row r="486" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A486">
         <v>484</v>
       </c>
@@ -25541,7 +25540,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="487" spans="1:16" hidden="1" x14ac:dyDescent="0.3">
+    <row r="487" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A487">
         <v>485</v>
       </c>
@@ -25588,7 +25587,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="488" spans="1:16" hidden="1" x14ac:dyDescent="0.3">
+    <row r="488" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A488">
         <v>486</v>
       </c>
@@ -25635,7 +25634,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="489" spans="1:16" hidden="1" x14ac:dyDescent="0.3">
+    <row r="489" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A489">
         <v>487</v>
       </c>
@@ -25682,7 +25681,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="490" spans="1:16" hidden="1" x14ac:dyDescent="0.3">
+    <row r="490" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A490">
         <v>488</v>
       </c>
@@ -25729,7 +25728,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="491" spans="1:16" hidden="1" x14ac:dyDescent="0.3">
+    <row r="491" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A491">
         <v>489</v>
       </c>
@@ -25776,7 +25775,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="492" spans="1:16" hidden="1" x14ac:dyDescent="0.3">
+    <row r="492" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A492">
         <v>490</v>
       </c>
@@ -25823,7 +25822,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="493" spans="1:16" hidden="1" x14ac:dyDescent="0.3">
+    <row r="493" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A493">
         <v>491</v>
       </c>
@@ -25870,7 +25869,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="494" spans="1:16" hidden="1" x14ac:dyDescent="0.3">
+    <row r="494" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A494">
         <v>492</v>
       </c>
@@ -25917,7 +25916,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="495" spans="1:16" hidden="1" x14ac:dyDescent="0.3">
+    <row r="495" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A495">
         <v>493</v>
       </c>
@@ -25964,7 +25963,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="496" spans="1:16" hidden="1" x14ac:dyDescent="0.3">
+    <row r="496" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A496">
         <v>494</v>
       </c>
@@ -26011,7 +26010,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="497" spans="1:16" hidden="1" x14ac:dyDescent="0.3">
+    <row r="497" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A497">
         <v>495</v>
       </c>
@@ -26058,7 +26057,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="498" spans="1:16" hidden="1" x14ac:dyDescent="0.3">
+    <row r="498" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A498">
         <v>496</v>
       </c>
@@ -26105,7 +26104,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="499" spans="1:16" hidden="1" x14ac:dyDescent="0.3">
+    <row r="499" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A499">
         <v>497</v>
       </c>
@@ -26152,7 +26151,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="500" spans="1:16" hidden="1" x14ac:dyDescent="0.3">
+    <row r="500" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A500">
         <v>498</v>
       </c>
@@ -26199,7 +26198,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="501" spans="1:16" hidden="1" x14ac:dyDescent="0.3">
+    <row r="501" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A501">
         <v>499</v>
       </c>
@@ -26246,7 +26245,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="502" spans="1:16" hidden="1" x14ac:dyDescent="0.3">
+    <row r="502" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A502">
         <v>500</v>
       </c>
@@ -26293,7 +26292,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="503" spans="1:16" hidden="1" x14ac:dyDescent="0.3">
+    <row r="503" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A503">
         <v>501</v>
       </c>
@@ -26340,7 +26339,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="504" spans="1:16" hidden="1" x14ac:dyDescent="0.3">
+    <row r="504" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A504">
         <v>502</v>
       </c>
@@ -26387,7 +26386,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="505" spans="1:16" hidden="1" x14ac:dyDescent="0.3">
+    <row r="505" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A505">
         <v>503</v>
       </c>
@@ -26434,7 +26433,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="506" spans="1:16" hidden="1" x14ac:dyDescent="0.3">
+    <row r="506" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A506">
         <v>504</v>
       </c>
@@ -26481,7 +26480,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="507" spans="1:16" hidden="1" x14ac:dyDescent="0.3">
+    <row r="507" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A507">
         <v>505</v>
       </c>
@@ -26528,7 +26527,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="508" spans="1:16" hidden="1" x14ac:dyDescent="0.3">
+    <row r="508" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A508">
         <v>506</v>
       </c>
@@ -26575,7 +26574,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="509" spans="1:16" hidden="1" x14ac:dyDescent="0.3">
+    <row r="509" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A509">
         <v>507</v>
       </c>
@@ -26622,7 +26621,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="510" spans="1:16" hidden="1" x14ac:dyDescent="0.3">
+    <row r="510" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A510">
         <v>508</v>
       </c>
@@ -26669,7 +26668,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="511" spans="1:16" hidden="1" x14ac:dyDescent="0.3">
+    <row r="511" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A511">
         <v>509</v>
       </c>
@@ -26716,7 +26715,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="512" spans="1:16" hidden="1" x14ac:dyDescent="0.3">
+    <row r="512" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A512">
         <v>510</v>
       </c>
@@ -26763,7 +26762,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="513" spans="1:16" hidden="1" x14ac:dyDescent="0.3">
+    <row r="513" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A513">
         <v>511</v>
       </c>
@@ -26810,7 +26809,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="514" spans="1:16" hidden="1" x14ac:dyDescent="0.3">
+    <row r="514" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A514">
         <v>512</v>
       </c>
@@ -27562,7 +27561,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="530" spans="1:16" hidden="1" x14ac:dyDescent="0.3">
+    <row r="530" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A530">
         <v>528</v>
       </c>
@@ -27609,7 +27608,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="531" spans="1:16" hidden="1" x14ac:dyDescent="0.3">
+    <row r="531" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A531">
         <v>529</v>
       </c>
@@ -27656,7 +27655,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="532" spans="1:16" hidden="1" x14ac:dyDescent="0.3">
+    <row r="532" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A532">
         <v>530</v>
       </c>
@@ -27703,7 +27702,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="533" spans="1:16" hidden="1" x14ac:dyDescent="0.3">
+    <row r="533" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A533">
         <v>531</v>
       </c>
@@ -27750,7 +27749,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="534" spans="1:16" hidden="1" x14ac:dyDescent="0.3">
+    <row r="534" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A534">
         <v>532</v>
       </c>
@@ -27797,7 +27796,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="535" spans="1:16" hidden="1" x14ac:dyDescent="0.3">
+    <row r="535" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A535">
         <v>533</v>
       </c>
@@ -27844,7 +27843,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="536" spans="1:16" hidden="1" x14ac:dyDescent="0.3">
+    <row r="536" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A536">
         <v>534</v>
       </c>
@@ -27891,7 +27890,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="537" spans="1:16" hidden="1" x14ac:dyDescent="0.3">
+    <row r="537" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A537">
         <v>535</v>
       </c>
@@ -27938,7 +27937,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="538" spans="1:16" hidden="1" x14ac:dyDescent="0.3">
+    <row r="538" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A538">
         <v>536</v>
       </c>
@@ -27985,7 +27984,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="539" spans="1:16" hidden="1" x14ac:dyDescent="0.3">
+    <row r="539" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A539">
         <v>537</v>
       </c>
@@ -28032,7 +28031,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="540" spans="1:16" hidden="1" x14ac:dyDescent="0.3">
+    <row r="540" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A540">
         <v>538</v>
       </c>
@@ -28079,7 +28078,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="541" spans="1:16" hidden="1" x14ac:dyDescent="0.3">
+    <row r="541" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A541">
         <v>539</v>
       </c>
@@ -28126,7 +28125,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="542" spans="1:16" hidden="1" x14ac:dyDescent="0.3">
+    <row r="542" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A542">
         <v>540</v>
       </c>
@@ -28173,7 +28172,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="543" spans="1:16" hidden="1" x14ac:dyDescent="0.3">
+    <row r="543" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A543">
         <v>541</v>
       </c>
@@ -28220,7 +28219,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="544" spans="1:16" hidden="1" x14ac:dyDescent="0.3">
+    <row r="544" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A544">
         <v>542</v>
       </c>
@@ -28267,7 +28266,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="545" spans="1:16" hidden="1" x14ac:dyDescent="0.3">
+    <row r="545" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A545">
         <v>543</v>
       </c>
@@ -28314,7 +28313,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="546" spans="1:16" hidden="1" x14ac:dyDescent="0.3">
+    <row r="546" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A546">
         <v>544</v>
       </c>
@@ -28361,7 +28360,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="547" spans="1:16" hidden="1" x14ac:dyDescent="0.3">
+    <row r="547" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A547">
         <v>545</v>
       </c>
@@ -28408,7 +28407,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="548" spans="1:16" hidden="1" x14ac:dyDescent="0.3">
+    <row r="548" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A548">
         <v>546</v>
       </c>
@@ -28455,7 +28454,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="549" spans="1:16" hidden="1" x14ac:dyDescent="0.3">
+    <row r="549" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A549">
         <v>547</v>
       </c>
@@ -28502,7 +28501,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="550" spans="1:16" hidden="1" x14ac:dyDescent="0.3">
+    <row r="550" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A550">
         <v>548</v>
       </c>
@@ -28549,7 +28548,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="551" spans="1:16" hidden="1" x14ac:dyDescent="0.3">
+    <row r="551" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A551">
         <v>549</v>
       </c>
@@ -28596,7 +28595,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="552" spans="1:16" hidden="1" x14ac:dyDescent="0.3">
+    <row r="552" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A552">
         <v>550</v>
       </c>
@@ -28643,7 +28642,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="553" spans="1:16" hidden="1" x14ac:dyDescent="0.3">
+    <row r="553" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A553">
         <v>551</v>
       </c>
@@ -28690,7 +28689,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="554" spans="1:16" hidden="1" x14ac:dyDescent="0.3">
+    <row r="554" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A554">
         <v>552</v>
       </c>
@@ -28737,7 +28736,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="555" spans="1:16" hidden="1" x14ac:dyDescent="0.3">
+    <row r="555" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A555">
         <v>553</v>
       </c>
@@ -28784,7 +28783,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="556" spans="1:16" hidden="1" x14ac:dyDescent="0.3">
+    <row r="556" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A556">
         <v>554</v>
       </c>
@@ -28831,7 +28830,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="557" spans="1:16" hidden="1" x14ac:dyDescent="0.3">
+    <row r="557" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A557">
         <v>555</v>
       </c>
@@ -28878,7 +28877,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="558" spans="1:16" hidden="1" x14ac:dyDescent="0.3">
+    <row r="558" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A558">
         <v>556</v>
       </c>
@@ -28925,7 +28924,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="559" spans="1:16" hidden="1" x14ac:dyDescent="0.3">
+    <row r="559" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A559">
         <v>557</v>
       </c>
@@ -28972,7 +28971,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="560" spans="1:16" hidden="1" x14ac:dyDescent="0.3">
+    <row r="560" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A560">
         <v>558</v>
       </c>
@@ -29019,7 +29018,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="561" spans="1:16" hidden="1" x14ac:dyDescent="0.3">
+    <row r="561" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A561">
         <v>559</v>
       </c>
@@ -29066,7 +29065,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="562" spans="1:16" hidden="1" x14ac:dyDescent="0.3">
+    <row r="562" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A562">
         <v>560</v>
       </c>
@@ -29113,7 +29112,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="563" spans="1:16" hidden="1" x14ac:dyDescent="0.3">
+    <row r="563" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A563">
         <v>561</v>
       </c>
@@ -29160,7 +29159,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="564" spans="1:16" hidden="1" x14ac:dyDescent="0.3">
+    <row r="564" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A564">
         <v>562</v>
       </c>
@@ -29207,7 +29206,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="565" spans="1:16" hidden="1" x14ac:dyDescent="0.3">
+    <row r="565" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A565">
         <v>563</v>
       </c>
@@ -29254,7 +29253,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="566" spans="1:16" hidden="1" x14ac:dyDescent="0.3">
+    <row r="566" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A566">
         <v>564</v>
       </c>
@@ -29301,7 +29300,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="567" spans="1:16" hidden="1" x14ac:dyDescent="0.3">
+    <row r="567" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A567">
         <v>565</v>
       </c>
@@ -29348,7 +29347,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="568" spans="1:16" hidden="1" x14ac:dyDescent="0.3">
+    <row r="568" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A568">
         <v>566</v>
       </c>
@@ -29395,7 +29394,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="569" spans="1:16" hidden="1" x14ac:dyDescent="0.3">
+    <row r="569" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A569">
         <v>567</v>
       </c>
@@ -29442,7 +29441,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="570" spans="1:16" hidden="1" x14ac:dyDescent="0.3">
+    <row r="570" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A570">
         <v>568</v>
       </c>
@@ -29489,7 +29488,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="571" spans="1:16" hidden="1" x14ac:dyDescent="0.3">
+    <row r="571" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A571">
         <v>569</v>
       </c>
@@ -29536,7 +29535,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="572" spans="1:16" hidden="1" x14ac:dyDescent="0.3">
+    <row r="572" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A572">
         <v>570</v>
       </c>
@@ -29583,7 +29582,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="573" spans="1:16" hidden="1" x14ac:dyDescent="0.3">
+    <row r="573" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A573">
         <v>571</v>
       </c>
@@ -29630,7 +29629,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="574" spans="1:16" hidden="1" x14ac:dyDescent="0.3">
+    <row r="574" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A574">
         <v>572</v>
       </c>
@@ -29677,7 +29676,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="575" spans="1:16" hidden="1" x14ac:dyDescent="0.3">
+    <row r="575" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A575">
         <v>573</v>
       </c>
@@ -29724,7 +29723,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="576" spans="1:16" hidden="1" x14ac:dyDescent="0.3">
+    <row r="576" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A576">
         <v>574</v>
       </c>
@@ -29771,7 +29770,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="577" spans="1:16" hidden="1" x14ac:dyDescent="0.3">
+    <row r="577" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A577">
         <v>575</v>
       </c>
@@ -29818,7 +29817,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="578" spans="1:16" hidden="1" x14ac:dyDescent="0.3">
+    <row r="578" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A578">
         <v>576</v>
       </c>
@@ -29865,7 +29864,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="579" spans="1:16" hidden="1" x14ac:dyDescent="0.3">
+    <row r="579" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A579">
         <v>577</v>
       </c>
@@ -29912,7 +29911,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="580" spans="1:16" hidden="1" x14ac:dyDescent="0.3">
+    <row r="580" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A580">
         <v>578</v>
       </c>
@@ -29959,7 +29958,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="581" spans="1:16" hidden="1" x14ac:dyDescent="0.3">
+    <row r="581" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A581">
         <v>579</v>
       </c>
@@ -30006,7 +30005,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="582" spans="1:16" hidden="1" x14ac:dyDescent="0.3">
+    <row r="582" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A582">
         <v>580</v>
       </c>
@@ -30053,7 +30052,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="583" spans="1:16" hidden="1" x14ac:dyDescent="0.3">
+    <row r="583" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A583">
         <v>581</v>
       </c>
@@ -30100,7 +30099,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="584" spans="1:16" hidden="1" x14ac:dyDescent="0.3">
+    <row r="584" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A584">
         <v>582</v>
       </c>
@@ -30147,7 +30146,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="585" spans="1:16" hidden="1" x14ac:dyDescent="0.3">
+    <row r="585" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A585">
         <v>583</v>
       </c>
@@ -30194,7 +30193,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="586" spans="1:16" hidden="1" x14ac:dyDescent="0.3">
+    <row r="586" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A586">
         <v>584</v>
       </c>
@@ -30241,7 +30240,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="587" spans="1:16" hidden="1" x14ac:dyDescent="0.3">
+    <row r="587" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A587">
         <v>585</v>
       </c>
@@ -30288,7 +30287,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="588" spans="1:16" hidden="1" x14ac:dyDescent="0.3">
+    <row r="588" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A588">
         <v>586</v>
       </c>
@@ -30335,7 +30334,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="589" spans="1:16" hidden="1" x14ac:dyDescent="0.3">
+    <row r="589" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A589">
         <v>587</v>
       </c>
@@ -30382,7 +30381,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="590" spans="1:16" hidden="1" x14ac:dyDescent="0.3">
+    <row r="590" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A590">
         <v>588</v>
       </c>
@@ -30429,7 +30428,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="591" spans="1:16" hidden="1" x14ac:dyDescent="0.3">
+    <row r="591" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A591">
         <v>589</v>
       </c>
@@ -30476,7 +30475,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="592" spans="1:16" hidden="1" x14ac:dyDescent="0.3">
+    <row r="592" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A592">
         <v>590</v>
       </c>
@@ -30523,7 +30522,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="593" spans="1:16" hidden="1" x14ac:dyDescent="0.3">
+    <row r="593" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A593">
         <v>591</v>
       </c>
@@ -30570,7 +30569,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="594" spans="1:16" hidden="1" x14ac:dyDescent="0.3">
+    <row r="594" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A594">
         <v>592</v>
       </c>
@@ -30617,7 +30616,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="595" spans="1:16" hidden="1" x14ac:dyDescent="0.3">
+    <row r="595" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A595">
         <v>593</v>
       </c>
@@ -30664,7 +30663,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="596" spans="1:16" hidden="1" x14ac:dyDescent="0.3">
+    <row r="596" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A596">
         <v>594</v>
       </c>
@@ -30711,7 +30710,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="597" spans="1:16" hidden="1" x14ac:dyDescent="0.3">
+    <row r="597" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A597">
         <v>595</v>
       </c>
@@ -30758,7 +30757,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="598" spans="1:16" hidden="1" x14ac:dyDescent="0.3">
+    <row r="598" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A598">
         <v>596</v>
       </c>
@@ -30805,7 +30804,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="599" spans="1:16" hidden="1" x14ac:dyDescent="0.3">
+    <row r="599" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A599">
         <v>597</v>
       </c>
@@ -30852,7 +30851,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="600" spans="1:16" hidden="1" x14ac:dyDescent="0.3">
+    <row r="600" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A600">
         <v>598</v>
       </c>
@@ -30899,7 +30898,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="601" spans="1:16" hidden="1" x14ac:dyDescent="0.3">
+    <row r="601" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A601">
         <v>599</v>
       </c>
@@ -30946,7 +30945,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="602" spans="1:16" hidden="1" x14ac:dyDescent="0.3">
+    <row r="602" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A602">
         <v>600</v>
       </c>
@@ -30993,7 +30992,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="603" spans="1:16" hidden="1" x14ac:dyDescent="0.3">
+    <row r="603" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A603">
         <v>601</v>
       </c>
@@ -31040,7 +31039,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="604" spans="1:16" hidden="1" x14ac:dyDescent="0.3">
+    <row r="604" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A604">
         <v>602</v>
       </c>
@@ -31087,7 +31086,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="605" spans="1:16" hidden="1" x14ac:dyDescent="0.3">
+    <row r="605" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A605">
         <v>603</v>
       </c>
@@ -31134,7 +31133,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="606" spans="1:16" hidden="1" x14ac:dyDescent="0.3">
+    <row r="606" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A606">
         <v>604</v>
       </c>
@@ -31181,7 +31180,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="607" spans="1:16" hidden="1" x14ac:dyDescent="0.3">
+    <row r="607" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A607">
         <v>605</v>
       </c>
@@ -31228,7 +31227,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="608" spans="1:16" hidden="1" x14ac:dyDescent="0.3">
+    <row r="608" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A608">
         <v>606</v>
       </c>
@@ -31275,7 +31274,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="609" spans="1:16" hidden="1" x14ac:dyDescent="0.3">
+    <row r="609" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A609">
         <v>607</v>
       </c>
@@ -31322,7 +31321,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="610" spans="1:16" hidden="1" x14ac:dyDescent="0.3">
+    <row r="610" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A610">
         <v>608</v>
       </c>
@@ -31369,7 +31368,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="611" spans="1:16" hidden="1" x14ac:dyDescent="0.3">
+    <row r="611" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A611">
         <v>609</v>
       </c>
@@ -31416,7 +31415,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="612" spans="1:16" hidden="1" x14ac:dyDescent="0.3">
+    <row r="612" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A612">
         <v>610</v>
       </c>
@@ -31463,7 +31462,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="613" spans="1:16" hidden="1" x14ac:dyDescent="0.3">
+    <row r="613" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A613">
         <v>611</v>
       </c>
@@ -31510,7 +31509,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="614" spans="1:16" hidden="1" x14ac:dyDescent="0.3">
+    <row r="614" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A614">
         <v>612</v>
       </c>
@@ -31557,7 +31556,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="615" spans="1:16" hidden="1" x14ac:dyDescent="0.3">
+    <row r="615" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A615">
         <v>613</v>
       </c>
@@ -31604,7 +31603,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="616" spans="1:16" hidden="1" x14ac:dyDescent="0.3">
+    <row r="616" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A616">
         <v>614</v>
       </c>
@@ -31651,7 +31650,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="617" spans="1:16" hidden="1" x14ac:dyDescent="0.3">
+    <row r="617" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A617">
         <v>615</v>
       </c>
@@ -31698,7 +31697,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="618" spans="1:16" hidden="1" x14ac:dyDescent="0.3">
+    <row r="618" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A618">
         <v>616</v>
       </c>
@@ -31745,7 +31744,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="619" spans="1:16" hidden="1" x14ac:dyDescent="0.3">
+    <row r="619" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A619">
         <v>617</v>
       </c>
@@ -31792,7 +31791,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="620" spans="1:16" hidden="1" x14ac:dyDescent="0.3">
+    <row r="620" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A620">
         <v>618</v>
       </c>
@@ -31839,7 +31838,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="621" spans="1:16" hidden="1" x14ac:dyDescent="0.3">
+    <row r="621" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A621">
         <v>619</v>
       </c>
@@ -31886,7 +31885,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="622" spans="1:16" hidden="1" x14ac:dyDescent="0.3">
+    <row r="622" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A622">
         <v>620</v>
       </c>
@@ -31933,7 +31932,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="623" spans="1:16" hidden="1" x14ac:dyDescent="0.3">
+    <row r="623" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A623">
         <v>621</v>
       </c>
@@ -31980,7 +31979,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="624" spans="1:16" hidden="1" x14ac:dyDescent="0.3">
+    <row r="624" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A624">
         <v>622</v>
       </c>
@@ -32027,7 +32026,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="625" spans="1:16" hidden="1" x14ac:dyDescent="0.3">
+    <row r="625" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A625">
         <v>623</v>
       </c>
@@ -32074,7 +32073,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="626" spans="1:16" hidden="1" x14ac:dyDescent="0.3">
+    <row r="626" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A626">
         <v>624</v>
       </c>
@@ -32121,7 +32120,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="627" spans="1:16" hidden="1" x14ac:dyDescent="0.3">
+    <row r="627" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A627">
         <v>625</v>
       </c>
@@ -32168,7 +32167,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="628" spans="1:16" hidden="1" x14ac:dyDescent="0.3">
+    <row r="628" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A628">
         <v>626</v>
       </c>
@@ -32215,7 +32214,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="629" spans="1:16" hidden="1" x14ac:dyDescent="0.3">
+    <row r="629" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A629">
         <v>627</v>
       </c>
@@ -32262,7 +32261,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="630" spans="1:16" hidden="1" x14ac:dyDescent="0.3">
+    <row r="630" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A630">
         <v>628</v>
       </c>
@@ -32309,7 +32308,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="631" spans="1:16" hidden="1" x14ac:dyDescent="0.3">
+    <row r="631" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A631">
         <v>629</v>
       </c>
@@ -32356,7 +32355,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="632" spans="1:16" hidden="1" x14ac:dyDescent="0.3">
+    <row r="632" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A632">
         <v>630</v>
       </c>
@@ -32403,7 +32402,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="633" spans="1:16" hidden="1" x14ac:dyDescent="0.3">
+    <row r="633" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A633">
         <v>631</v>
       </c>
@@ -32450,7 +32449,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="634" spans="1:16" hidden="1" x14ac:dyDescent="0.3">
+    <row r="634" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A634">
         <v>632</v>
       </c>
@@ -32497,7 +32496,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="635" spans="1:16" hidden="1" x14ac:dyDescent="0.3">
+    <row r="635" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A635">
         <v>633</v>
       </c>
@@ -32544,7 +32543,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="636" spans="1:16" hidden="1" x14ac:dyDescent="0.3">
+    <row r="636" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A636">
         <v>634</v>
       </c>
@@ -32591,7 +32590,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="637" spans="1:16" hidden="1" x14ac:dyDescent="0.3">
+    <row r="637" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A637">
         <v>635</v>
       </c>
@@ -32638,7 +32637,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="638" spans="1:16" hidden="1" x14ac:dyDescent="0.3">
+    <row r="638" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A638">
         <v>636</v>
       </c>
@@ -32685,7 +32684,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="639" spans="1:16" hidden="1" x14ac:dyDescent="0.3">
+    <row r="639" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A639">
         <v>637</v>
       </c>
@@ -32732,7 +32731,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="640" spans="1:16" hidden="1" x14ac:dyDescent="0.3">
+    <row r="640" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A640">
         <v>638</v>
       </c>
@@ -32779,7 +32778,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="641" spans="1:16" hidden="1" x14ac:dyDescent="0.3">
+    <row r="641" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A641">
         <v>639</v>
       </c>
@@ -32826,7 +32825,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="642" spans="1:16" hidden="1" x14ac:dyDescent="0.3">
+    <row r="642" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A642">
         <v>640</v>
       </c>
@@ -32873,7 +32872,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="643" spans="1:16" hidden="1" x14ac:dyDescent="0.3">
+    <row r="643" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A643">
         <v>641</v>
       </c>
@@ -32920,7 +32919,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="644" spans="1:16" hidden="1" x14ac:dyDescent="0.3">
+    <row r="644" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A644">
         <v>642</v>
       </c>
@@ -32967,7 +32966,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="645" spans="1:16" hidden="1" x14ac:dyDescent="0.3">
+    <row r="645" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A645">
         <v>643</v>
       </c>
@@ -33014,7 +33013,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="646" spans="1:16" hidden="1" x14ac:dyDescent="0.3">
+    <row r="646" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A646">
         <v>644</v>
       </c>
@@ -33061,7 +33060,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="647" spans="1:16" hidden="1" x14ac:dyDescent="0.3">
+    <row r="647" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A647">
         <v>645</v>
       </c>
@@ -33108,7 +33107,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="648" spans="1:16" hidden="1" x14ac:dyDescent="0.3">
+    <row r="648" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A648">
         <v>646</v>
       </c>
@@ -33202,7 +33201,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="650" spans="1:16" hidden="1" x14ac:dyDescent="0.3">
+    <row r="650" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A650">
         <v>648</v>
       </c>
@@ -33249,7 +33248,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="651" spans="1:16" hidden="1" x14ac:dyDescent="0.3">
+    <row r="651" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A651">
         <v>649</v>
       </c>
@@ -33296,7 +33295,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="652" spans="1:16" hidden="1" x14ac:dyDescent="0.3">
+    <row r="652" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A652">
         <v>650</v>
       </c>
@@ -33343,7 +33342,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="653" spans="1:16" hidden="1" x14ac:dyDescent="0.3">
+    <row r="653" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A653">
         <v>651</v>
       </c>
@@ -33390,7 +33389,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="654" spans="1:16" hidden="1" x14ac:dyDescent="0.3">
+    <row r="654" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A654">
         <v>652</v>
       </c>
@@ -33437,7 +33436,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="655" spans="1:16" hidden="1" x14ac:dyDescent="0.3">
+    <row r="655" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A655">
         <v>653</v>
       </c>
@@ -33531,7 +33530,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="657" spans="1:16" hidden="1" x14ac:dyDescent="0.3">
+    <row r="657" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A657">
         <v>655</v>
       </c>
@@ -33578,7 +33577,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="658" spans="1:16" hidden="1" x14ac:dyDescent="0.3">
+    <row r="658" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A658">
         <v>656</v>
       </c>
@@ -33625,7 +33624,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="659" spans="1:16" hidden="1" x14ac:dyDescent="0.3">
+    <row r="659" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A659">
         <v>657</v>
       </c>
@@ -33672,7 +33671,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="660" spans="1:16" hidden="1" x14ac:dyDescent="0.3">
+    <row r="660" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A660">
         <v>658</v>
       </c>
@@ -33719,7 +33718,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="661" spans="1:16" hidden="1" x14ac:dyDescent="0.3">
+    <row r="661" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A661">
         <v>659</v>
       </c>
@@ -33766,7 +33765,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="662" spans="1:16" hidden="1" x14ac:dyDescent="0.3">
+    <row r="662" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A662">
         <v>660</v>
       </c>
@@ -33813,7 +33812,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="663" spans="1:16" hidden="1" x14ac:dyDescent="0.3">
+    <row r="663" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A663">
         <v>661</v>
       </c>
@@ -33860,7 +33859,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="664" spans="1:16" hidden="1" x14ac:dyDescent="0.3">
+    <row r="664" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A664">
         <v>662</v>
       </c>
@@ -33907,7 +33906,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="665" spans="1:16" hidden="1" x14ac:dyDescent="0.3">
+    <row r="665" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A665">
         <v>663</v>
       </c>
@@ -33954,7 +33953,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="666" spans="1:16" hidden="1" x14ac:dyDescent="0.3">
+    <row r="666" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A666">
         <v>664</v>
       </c>
@@ -34001,7 +34000,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="667" spans="1:16" hidden="1" x14ac:dyDescent="0.3">
+    <row r="667" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A667">
         <v>665</v>
       </c>
@@ -34048,7 +34047,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="668" spans="1:16" hidden="1" x14ac:dyDescent="0.3">
+    <row r="668" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A668">
         <v>666</v>
       </c>
@@ -34095,7 +34094,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="669" spans="1:16" hidden="1" x14ac:dyDescent="0.3">
+    <row r="669" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A669">
         <v>667</v>
       </c>
@@ -34142,7 +34141,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="670" spans="1:16" hidden="1" x14ac:dyDescent="0.3">
+    <row r="670" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A670">
         <v>668</v>
       </c>
@@ -34189,7 +34188,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="671" spans="1:16" hidden="1" x14ac:dyDescent="0.3">
+    <row r="671" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A671">
         <v>669</v>
       </c>
@@ -34236,7 +34235,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="672" spans="1:16" hidden="1" x14ac:dyDescent="0.3">
+    <row r="672" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A672">
         <v>670</v>
       </c>
@@ -34283,7 +34282,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="673" spans="1:16" hidden="1" x14ac:dyDescent="0.3">
+    <row r="673" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A673">
         <v>671</v>
       </c>
@@ -34330,7 +34329,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="674" spans="1:16" hidden="1" x14ac:dyDescent="0.3">
+    <row r="674" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A674">
         <v>672</v>
       </c>
@@ -34377,7 +34376,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="675" spans="1:16" hidden="1" x14ac:dyDescent="0.3">
+    <row r="675" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A675">
         <v>673</v>
       </c>
@@ -34424,7 +34423,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="676" spans="1:16" hidden="1" x14ac:dyDescent="0.3">
+    <row r="676" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A676">
         <v>674</v>
       </c>
@@ -34471,7 +34470,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="677" spans="1:16" hidden="1" x14ac:dyDescent="0.3">
+    <row r="677" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A677">
         <v>675</v>
       </c>
@@ -34518,7 +34517,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="678" spans="1:16" hidden="1" x14ac:dyDescent="0.3">
+    <row r="678" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A678">
         <v>676</v>
       </c>
@@ -34565,7 +34564,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="679" spans="1:16" hidden="1" x14ac:dyDescent="0.3">
+    <row r="679" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A679">
         <v>677</v>
       </c>
@@ -34612,7 +34611,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="680" spans="1:16" hidden="1" x14ac:dyDescent="0.3">
+    <row r="680" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A680">
         <v>678</v>
       </c>
@@ -34659,7 +34658,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="681" spans="1:16" hidden="1" x14ac:dyDescent="0.3">
+    <row r="681" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A681">
         <v>679</v>
       </c>
@@ -34706,7 +34705,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="682" spans="1:16" hidden="1" x14ac:dyDescent="0.3">
+    <row r="682" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A682">
         <v>680</v>
       </c>
@@ -34753,7 +34752,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="683" spans="1:16" hidden="1" x14ac:dyDescent="0.3">
+    <row r="683" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A683">
         <v>681</v>
       </c>
@@ -34800,7 +34799,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="684" spans="1:16" hidden="1" x14ac:dyDescent="0.3">
+    <row r="684" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A684">
         <v>682</v>
       </c>
@@ -34847,7 +34846,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="685" spans="1:16" hidden="1" x14ac:dyDescent="0.3">
+    <row r="685" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A685">
         <v>683</v>
       </c>
@@ -34894,7 +34893,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="686" spans="1:16" hidden="1" x14ac:dyDescent="0.3">
+    <row r="686" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A686">
         <v>684</v>
       </c>
@@ -34941,7 +34940,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="687" spans="1:16" hidden="1" x14ac:dyDescent="0.3">
+    <row r="687" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A687">
         <v>685</v>
       </c>
@@ -34988,7 +34987,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="688" spans="1:16" hidden="1" x14ac:dyDescent="0.3">
+    <row r="688" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A688">
         <v>686</v>
       </c>
@@ -35035,7 +35034,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="689" spans="1:16" hidden="1" x14ac:dyDescent="0.3">
+    <row r="689" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A689">
         <v>687</v>
       </c>
@@ -35082,7 +35081,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="690" spans="1:16" hidden="1" x14ac:dyDescent="0.3">
+    <row r="690" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A690">
         <v>688</v>
       </c>
@@ -35129,7 +35128,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="691" spans="1:16" hidden="1" x14ac:dyDescent="0.3">
+    <row r="691" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A691">
         <v>689</v>
       </c>
@@ -35176,7 +35175,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="692" spans="1:16" hidden="1" x14ac:dyDescent="0.3">
+    <row r="692" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A692">
         <v>690</v>
       </c>
@@ -35223,7 +35222,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="693" spans="1:16" hidden="1" x14ac:dyDescent="0.3">
+    <row r="693" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A693">
         <v>691</v>
       </c>
@@ -35270,7 +35269,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="694" spans="1:16" hidden="1" x14ac:dyDescent="0.3">
+    <row r="694" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A694">
         <v>692</v>
       </c>
@@ -35317,7 +35316,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="695" spans="1:16" hidden="1" x14ac:dyDescent="0.3">
+    <row r="695" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A695">
         <v>693</v>
       </c>
@@ -35364,7 +35363,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="696" spans="1:16" hidden="1" x14ac:dyDescent="0.3">
+    <row r="696" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A696">
         <v>694</v>
       </c>
@@ -35411,7 +35410,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="697" spans="1:16" hidden="1" x14ac:dyDescent="0.3">
+    <row r="697" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A697">
         <v>695</v>
       </c>
@@ -35458,7 +35457,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="698" spans="1:16" hidden="1" x14ac:dyDescent="0.3">
+    <row r="698" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A698">
         <v>696</v>
       </c>
@@ -35505,7 +35504,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="699" spans="1:16" hidden="1" x14ac:dyDescent="0.3">
+    <row r="699" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A699">
         <v>697</v>
       </c>
@@ -35552,7 +35551,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="700" spans="1:16" hidden="1" x14ac:dyDescent="0.3">
+    <row r="700" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A700">
         <v>698</v>
       </c>
@@ -35599,7 +35598,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="701" spans="1:16" hidden="1" x14ac:dyDescent="0.3">
+    <row r="701" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A701">
         <v>699</v>
       </c>
@@ -35646,7 +35645,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="702" spans="1:16" hidden="1" x14ac:dyDescent="0.3">
+    <row r="702" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A702">
         <v>700</v>
       </c>
@@ -35693,7 +35692,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="703" spans="1:16" hidden="1" x14ac:dyDescent="0.3">
+    <row r="703" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A703">
         <v>701</v>
       </c>
@@ -35740,7 +35739,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="704" spans="1:16" hidden="1" x14ac:dyDescent="0.3">
+    <row r="704" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A704">
         <v>702</v>
       </c>
@@ -35787,7 +35786,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="705" spans="1:16" hidden="1" x14ac:dyDescent="0.3">
+    <row r="705" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A705">
         <v>703</v>
       </c>
@@ -35834,7 +35833,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="706" spans="1:16" hidden="1" x14ac:dyDescent="0.3">
+    <row r="706" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A706">
         <v>704</v>
       </c>
@@ -35881,7 +35880,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="707" spans="1:16" hidden="1" x14ac:dyDescent="0.3">
+    <row r="707" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A707">
         <v>705</v>
       </c>
@@ -35928,7 +35927,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="708" spans="1:16" hidden="1" x14ac:dyDescent="0.3">
+    <row r="708" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A708">
         <v>706</v>
       </c>
@@ -35975,7 +35974,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="709" spans="1:16" hidden="1" x14ac:dyDescent="0.3">
+    <row r="709" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A709">
         <v>707</v>
       </c>
@@ -36022,7 +36021,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="710" spans="1:16" hidden="1" x14ac:dyDescent="0.3">
+    <row r="710" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A710">
         <v>708</v>
       </c>
@@ -36069,7 +36068,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="711" spans="1:16" hidden="1" x14ac:dyDescent="0.3">
+    <row r="711" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A711">
         <v>709</v>
       </c>
@@ -36116,7 +36115,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="712" spans="1:16" hidden="1" x14ac:dyDescent="0.3">
+    <row r="712" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A712">
         <v>710</v>
       </c>
@@ -36163,7 +36162,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="713" spans="1:16" hidden="1" x14ac:dyDescent="0.3">
+    <row r="713" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A713">
         <v>711</v>
       </c>
@@ -36210,7 +36209,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="714" spans="1:16" hidden="1" x14ac:dyDescent="0.3">
+    <row r="714" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A714">
         <v>712</v>
       </c>
@@ -36257,7 +36256,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="715" spans="1:16" hidden="1" x14ac:dyDescent="0.3">
+    <row r="715" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A715">
         <v>713</v>
       </c>
@@ -36304,7 +36303,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="716" spans="1:16" hidden="1" x14ac:dyDescent="0.3">
+    <row r="716" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A716">
         <v>714</v>
       </c>
@@ -36351,7 +36350,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="717" spans="1:16" hidden="1" x14ac:dyDescent="0.3">
+    <row r="717" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A717">
         <v>715</v>
       </c>
@@ -36398,7 +36397,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="718" spans="1:16" hidden="1" x14ac:dyDescent="0.3">
+    <row r="718" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A718">
         <v>716</v>
       </c>
@@ -36445,7 +36444,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="719" spans="1:16" hidden="1" x14ac:dyDescent="0.3">
+    <row r="719" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A719">
         <v>717</v>
       </c>
@@ -36492,7 +36491,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="720" spans="1:16" hidden="1" x14ac:dyDescent="0.3">
+    <row r="720" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A720">
         <v>718</v>
       </c>
@@ -36539,7 +36538,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="721" spans="1:16" hidden="1" x14ac:dyDescent="0.3">
+    <row r="721" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A721">
         <v>719</v>
       </c>
@@ -36586,7 +36585,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="722" spans="1:16" hidden="1" x14ac:dyDescent="0.3">
+    <row r="722" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A722">
         <v>720</v>
       </c>
@@ -36633,7 +36632,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="723" spans="1:16" hidden="1" x14ac:dyDescent="0.3">
+    <row r="723" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A723">
         <v>721</v>
       </c>
@@ -36680,7 +36679,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="724" spans="1:16" hidden="1" x14ac:dyDescent="0.3">
+    <row r="724" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A724">
         <v>722</v>
       </c>
@@ -36727,7 +36726,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="725" spans="1:16" hidden="1" x14ac:dyDescent="0.3">
+    <row r="725" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A725">
         <v>723</v>
       </c>
@@ -36774,7 +36773,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="726" spans="1:16" hidden="1" x14ac:dyDescent="0.3">
+    <row r="726" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A726">
         <v>724</v>
       </c>
@@ -36821,7 +36820,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="727" spans="1:16" hidden="1" x14ac:dyDescent="0.3">
+    <row r="727" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A727">
         <v>725</v>
       </c>
@@ -36868,7 +36867,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="728" spans="1:16" hidden="1" x14ac:dyDescent="0.3">
+    <row r="728" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A728">
         <v>726</v>
       </c>
@@ -36915,7 +36914,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="729" spans="1:16" hidden="1" x14ac:dyDescent="0.3">
+    <row r="729" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A729">
         <v>727</v>
       </c>
@@ -36962,7 +36961,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="730" spans="1:16" hidden="1" x14ac:dyDescent="0.3">
+    <row r="730" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A730">
         <v>728</v>
       </c>
@@ -37009,7 +37008,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="731" spans="1:16" hidden="1" x14ac:dyDescent="0.3">
+    <row r="731" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A731">
         <v>729</v>
       </c>
@@ -37056,7 +37055,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="732" spans="1:16" hidden="1" x14ac:dyDescent="0.3">
+    <row r="732" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A732">
         <v>730</v>
       </c>
@@ -37103,7 +37102,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="733" spans="1:16" hidden="1" x14ac:dyDescent="0.3">
+    <row r="733" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A733">
         <v>731</v>
       </c>
@@ -37150,7 +37149,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="734" spans="1:16" hidden="1" x14ac:dyDescent="0.3">
+    <row r="734" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A734">
         <v>732</v>
       </c>
@@ -37197,7 +37196,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="735" spans="1:16" hidden="1" x14ac:dyDescent="0.3">
+    <row r="735" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A735">
         <v>733</v>
       </c>
@@ -37244,7 +37243,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="736" spans="1:16" hidden="1" x14ac:dyDescent="0.3">
+    <row r="736" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A736">
         <v>734</v>
       </c>
@@ -37291,7 +37290,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="737" spans="1:16" hidden="1" x14ac:dyDescent="0.3">
+    <row r="737" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A737">
         <v>735</v>
       </c>
@@ -37338,7 +37337,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="738" spans="1:16" hidden="1" x14ac:dyDescent="0.3">
+    <row r="738" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A738">
         <v>736</v>
       </c>
@@ -37385,7 +37384,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="739" spans="1:16" hidden="1" x14ac:dyDescent="0.3">
+    <row r="739" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A739">
         <v>737</v>
       </c>
@@ -37432,7 +37431,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="740" spans="1:16" hidden="1" x14ac:dyDescent="0.3">
+    <row r="740" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A740">
         <v>738</v>
       </c>
@@ -37479,7 +37478,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="741" spans="1:16" hidden="1" x14ac:dyDescent="0.3">
+    <row r="741" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A741">
         <v>739</v>
       </c>
@@ -37526,7 +37525,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="742" spans="1:16" hidden="1" x14ac:dyDescent="0.3">
+    <row r="742" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A742">
         <v>740</v>
       </c>
@@ -37573,7 +37572,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="743" spans="1:16" hidden="1" x14ac:dyDescent="0.3">
+    <row r="743" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A743">
         <v>741</v>
       </c>
@@ -37620,7 +37619,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="744" spans="1:16" hidden="1" x14ac:dyDescent="0.3">
+    <row r="744" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A744">
         <v>742</v>
       </c>
@@ -37667,7 +37666,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="745" spans="1:16" hidden="1" x14ac:dyDescent="0.3">
+    <row r="745" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A745">
         <v>743</v>
       </c>
@@ -37714,7 +37713,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="746" spans="1:16" hidden="1" x14ac:dyDescent="0.3">
+    <row r="746" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A746">
         <v>744</v>
       </c>
@@ -37761,7 +37760,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="747" spans="1:16" hidden="1" x14ac:dyDescent="0.3">
+    <row r="747" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A747">
         <v>745</v>
       </c>
@@ -37808,7 +37807,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="748" spans="1:16" hidden="1" x14ac:dyDescent="0.3">
+    <row r="748" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A748">
         <v>746</v>
       </c>
@@ -37855,7 +37854,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="749" spans="1:16" hidden="1" x14ac:dyDescent="0.3">
+    <row r="749" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A749">
         <v>747</v>
       </c>
@@ -37902,7 +37901,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="750" spans="1:16" hidden="1" x14ac:dyDescent="0.3">
+    <row r="750" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A750">
         <v>748</v>
       </c>
@@ -37949,7 +37948,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="751" spans="1:16" hidden="1" x14ac:dyDescent="0.3">
+    <row r="751" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A751">
         <v>749</v>
       </c>
@@ -37996,7 +37995,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="752" spans="1:16" hidden="1" x14ac:dyDescent="0.3">
+    <row r="752" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A752">
         <v>750</v>
       </c>
@@ -38043,7 +38042,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="753" spans="1:16" hidden="1" x14ac:dyDescent="0.3">
+    <row r="753" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A753">
         <v>751</v>
       </c>
@@ -38090,7 +38089,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="754" spans="1:16" hidden="1" x14ac:dyDescent="0.3">
+    <row r="754" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A754">
         <v>752</v>
       </c>
@@ -38137,7 +38136,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="755" spans="1:16" hidden="1" x14ac:dyDescent="0.3">
+    <row r="755" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A755">
         <v>753</v>
       </c>
@@ -38184,7 +38183,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="756" spans="1:16" hidden="1" x14ac:dyDescent="0.3">
+    <row r="756" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A756">
         <v>754</v>
       </c>
@@ -38231,7 +38230,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="757" spans="1:16" hidden="1" x14ac:dyDescent="0.3">
+    <row r="757" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A757">
         <v>755</v>
       </c>
@@ -38278,7 +38277,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="758" spans="1:16" hidden="1" x14ac:dyDescent="0.3">
+    <row r="758" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A758">
         <v>756</v>
       </c>
@@ -38325,7 +38324,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="759" spans="1:16" hidden="1" x14ac:dyDescent="0.3">
+    <row r="759" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A759">
         <v>757</v>
       </c>
@@ -38372,7 +38371,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="760" spans="1:16" hidden="1" x14ac:dyDescent="0.3">
+    <row r="760" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A760">
         <v>758</v>
       </c>
@@ -38419,7 +38418,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="761" spans="1:16" hidden="1" x14ac:dyDescent="0.3">
+    <row r="761" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A761">
         <v>759</v>
       </c>
@@ -38466,7 +38465,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="762" spans="1:16" hidden="1" x14ac:dyDescent="0.3">
+    <row r="762" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A762">
         <v>760</v>
       </c>
@@ -38513,7 +38512,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="763" spans="1:16" hidden="1" x14ac:dyDescent="0.3">
+    <row r="763" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A763">
         <v>761</v>
       </c>
@@ -38560,7 +38559,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="764" spans="1:16" hidden="1" x14ac:dyDescent="0.3">
+    <row r="764" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A764">
         <v>762</v>
       </c>
@@ -38607,7 +38606,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="765" spans="1:16" hidden="1" x14ac:dyDescent="0.3">
+    <row r="765" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A765">
         <v>763</v>
       </c>
@@ -38654,7 +38653,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="766" spans="1:16" hidden="1" x14ac:dyDescent="0.3">
+    <row r="766" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A766">
         <v>764</v>
       </c>
@@ -38701,7 +38700,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="767" spans="1:16" hidden="1" x14ac:dyDescent="0.3">
+    <row r="767" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A767">
         <v>765</v>
       </c>
@@ -38748,7 +38747,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="768" spans="1:16" hidden="1" x14ac:dyDescent="0.3">
+    <row r="768" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A768">
         <v>766</v>
       </c>
@@ -38795,7 +38794,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="769" spans="1:16" hidden="1" x14ac:dyDescent="0.3">
+    <row r="769" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A769">
         <v>767</v>
       </c>
@@ -38842,7 +38841,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="770" spans="1:16" hidden="1" x14ac:dyDescent="0.3">
+    <row r="770" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A770">
         <v>768</v>
       </c>
@@ -38889,7 +38888,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="771" spans="1:16" hidden="1" x14ac:dyDescent="0.3">
+    <row r="771" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A771">
         <v>769</v>
       </c>
@@ -38936,7 +38935,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="772" spans="1:16" hidden="1" x14ac:dyDescent="0.3">
+    <row r="772" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A772">
         <v>770</v>
       </c>
@@ -38983,7 +38982,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="773" spans="1:16" hidden="1" x14ac:dyDescent="0.3">
+    <row r="773" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A773">
         <v>771</v>
       </c>
@@ -39030,7 +39029,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="774" spans="1:16" hidden="1" x14ac:dyDescent="0.3">
+    <row r="774" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A774">
         <v>772</v>
       </c>
@@ -39077,7 +39076,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="775" spans="1:16" hidden="1" x14ac:dyDescent="0.3">
+    <row r="775" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A775">
         <v>773</v>
       </c>
@@ -39124,7 +39123,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="776" spans="1:16" hidden="1" x14ac:dyDescent="0.3">
+    <row r="776" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A776">
         <v>774</v>
       </c>
@@ -39171,7 +39170,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="777" spans="1:16" hidden="1" x14ac:dyDescent="0.3">
+    <row r="777" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A777">
         <v>775</v>
       </c>
@@ -39218,7 +39217,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="778" spans="1:16" hidden="1" x14ac:dyDescent="0.3">
+    <row r="778" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A778">
         <v>776</v>
       </c>
@@ -39265,7 +39264,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="779" spans="1:16" hidden="1" x14ac:dyDescent="0.3">
+    <row r="779" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A779">
         <v>777</v>
       </c>
@@ -39312,7 +39311,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="780" spans="1:16" hidden="1" x14ac:dyDescent="0.3">
+    <row r="780" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A780">
         <v>778</v>
       </c>
@@ -39359,7 +39358,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="781" spans="1:16" hidden="1" x14ac:dyDescent="0.3">
+    <row r="781" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A781">
         <v>779</v>
       </c>
@@ -39406,7 +39405,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="782" spans="1:16" hidden="1" x14ac:dyDescent="0.3">
+    <row r="782" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A782">
         <v>780</v>
       </c>
@@ -39453,7 +39452,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="783" spans="1:16" hidden="1" x14ac:dyDescent="0.3">
+    <row r="783" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A783">
         <v>781</v>
       </c>
@@ -39500,7 +39499,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="784" spans="1:16" hidden="1" x14ac:dyDescent="0.3">
+    <row r="784" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A784">
         <v>782</v>
       </c>
@@ -39547,7 +39546,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="785" spans="1:16" hidden="1" x14ac:dyDescent="0.3">
+    <row r="785" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A785">
         <v>783</v>
       </c>
@@ -39594,7 +39593,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="786" spans="1:16" hidden="1" x14ac:dyDescent="0.3">
+    <row r="786" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A786">
         <v>784</v>
       </c>
@@ -39641,7 +39640,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="787" spans="1:16" hidden="1" x14ac:dyDescent="0.3">
+    <row r="787" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A787">
         <v>785</v>
       </c>
@@ -39688,7 +39687,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="788" spans="1:16" hidden="1" x14ac:dyDescent="0.3">
+    <row r="788" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A788">
         <v>786</v>
       </c>
@@ -39735,7 +39734,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="789" spans="1:16" hidden="1" x14ac:dyDescent="0.3">
+    <row r="789" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A789">
         <v>787</v>
       </c>
@@ -39782,7 +39781,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="790" spans="1:16" hidden="1" x14ac:dyDescent="0.3">
+    <row r="790" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A790">
         <v>788</v>
       </c>
@@ -39829,7 +39828,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="791" spans="1:16" hidden="1" x14ac:dyDescent="0.3">
+    <row r="791" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A791">
         <v>789</v>
       </c>
@@ -39876,7 +39875,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="792" spans="1:16" hidden="1" x14ac:dyDescent="0.3">
+    <row r="792" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A792">
         <v>790</v>
       </c>
@@ -39923,7 +39922,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="793" spans="1:16" hidden="1" x14ac:dyDescent="0.3">
+    <row r="793" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A793">
         <v>791</v>
       </c>
@@ -39970,7 +39969,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="794" spans="1:16" hidden="1" x14ac:dyDescent="0.3">
+    <row r="794" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A794">
         <v>792</v>
       </c>
@@ -40017,7 +40016,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="795" spans="1:16" hidden="1" x14ac:dyDescent="0.3">
+    <row r="795" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A795">
         <v>793</v>
       </c>
@@ -40064,7 +40063,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="796" spans="1:16" hidden="1" x14ac:dyDescent="0.3">
+    <row r="796" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A796">
         <v>794</v>
       </c>
@@ -40111,7 +40110,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="797" spans="1:16" hidden="1" x14ac:dyDescent="0.3">
+    <row r="797" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A797">
         <v>795</v>
       </c>
@@ -40158,7 +40157,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="798" spans="1:16" hidden="1" x14ac:dyDescent="0.3">
+    <row r="798" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A798">
         <v>796</v>
       </c>
@@ -40205,7 +40204,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="799" spans="1:16" hidden="1" x14ac:dyDescent="0.3">
+    <row r="799" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A799">
         <v>797</v>
       </c>
@@ -40252,7 +40251,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="800" spans="1:16" hidden="1" x14ac:dyDescent="0.3">
+    <row r="800" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A800">
         <v>798</v>
       </c>
@@ -40299,7 +40298,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="801" spans="1:16" hidden="1" x14ac:dyDescent="0.3">
+    <row r="801" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A801">
         <v>799</v>
       </c>
@@ -40346,7 +40345,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="802" spans="1:16" hidden="1" x14ac:dyDescent="0.3">
+    <row r="802" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A802">
         <v>800</v>
       </c>
@@ -40393,7 +40392,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="803" spans="1:16" hidden="1" x14ac:dyDescent="0.3">
+    <row r="803" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A803">
         <v>801</v>
       </c>
@@ -40440,7 +40439,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="804" spans="1:16" hidden="1" x14ac:dyDescent="0.3">
+    <row r="804" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A804">
         <v>802</v>
       </c>
@@ -40487,7 +40486,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="805" spans="1:16" hidden="1" x14ac:dyDescent="0.3">
+    <row r="805" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A805">
         <v>803</v>
       </c>
@@ -40534,7 +40533,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="806" spans="1:16" hidden="1" x14ac:dyDescent="0.3">
+    <row r="806" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A806">
         <v>804</v>
       </c>
@@ -40581,7 +40580,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="807" spans="1:16" hidden="1" x14ac:dyDescent="0.3">
+    <row r="807" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A807">
         <v>805</v>
       </c>
@@ -40628,7 +40627,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="808" spans="1:16" hidden="1" x14ac:dyDescent="0.3">
+    <row r="808" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A808">
         <v>806</v>
       </c>
@@ -40675,7 +40674,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="809" spans="1:16" hidden="1" x14ac:dyDescent="0.3">
+    <row r="809" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A809">
         <v>807</v>
       </c>
@@ -40722,7 +40721,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="810" spans="1:16" hidden="1" x14ac:dyDescent="0.3">
+    <row r="810" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A810">
         <v>808</v>
       </c>
@@ -40769,7 +40768,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="811" spans="1:16" hidden="1" x14ac:dyDescent="0.3">
+    <row r="811" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A811">
         <v>809</v>
       </c>
@@ -40816,7 +40815,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="812" spans="1:16" hidden="1" x14ac:dyDescent="0.3">
+    <row r="812" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A812">
         <v>810</v>
       </c>
@@ -40863,7 +40862,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="813" spans="1:16" hidden="1" x14ac:dyDescent="0.3">
+    <row r="813" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A813">
         <v>811</v>
       </c>
@@ -40910,7 +40909,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="814" spans="1:16" hidden="1" x14ac:dyDescent="0.3">
+    <row r="814" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A814">
         <v>812</v>
       </c>
@@ -40957,7 +40956,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="815" spans="1:16" hidden="1" x14ac:dyDescent="0.3">
+    <row r="815" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A815">
         <v>813</v>
       </c>
@@ -41004,7 +41003,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="816" spans="1:16" hidden="1" x14ac:dyDescent="0.3">
+    <row r="816" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A816">
         <v>814</v>
       </c>
@@ -41051,7 +41050,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="817" spans="1:16" hidden="1" x14ac:dyDescent="0.3">
+    <row r="817" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A817">
         <v>815</v>
       </c>
@@ -41098,7 +41097,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="818" spans="1:16" hidden="1" x14ac:dyDescent="0.3">
+    <row r="818" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A818">
         <v>816</v>
       </c>
@@ -41145,7 +41144,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="819" spans="1:16" hidden="1" x14ac:dyDescent="0.3">
+    <row r="819" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A819">
         <v>817</v>
       </c>
@@ -41192,7 +41191,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="820" spans="1:16" hidden="1" x14ac:dyDescent="0.3">
+    <row r="820" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A820">
         <v>818</v>
       </c>
@@ -41239,7 +41238,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="821" spans="1:16" hidden="1" x14ac:dyDescent="0.3">
+    <row r="821" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A821">
         <v>819</v>
       </c>
@@ -41286,7 +41285,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="822" spans="1:16" hidden="1" x14ac:dyDescent="0.3">
+    <row r="822" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A822">
         <v>820</v>
       </c>
@@ -41333,7 +41332,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="823" spans="1:16" hidden="1" x14ac:dyDescent="0.3">
+    <row r="823" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A823">
         <v>821</v>
       </c>
@@ -41380,7 +41379,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="824" spans="1:16" hidden="1" x14ac:dyDescent="0.3">
+    <row r="824" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A824">
         <v>822</v>
       </c>
@@ -41427,7 +41426,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="825" spans="1:16" hidden="1" x14ac:dyDescent="0.3">
+    <row r="825" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A825">
         <v>823</v>
       </c>
@@ -41474,7 +41473,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="826" spans="1:16" hidden="1" x14ac:dyDescent="0.3">
+    <row r="826" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A826">
         <v>824</v>
       </c>
@@ -41521,7 +41520,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="827" spans="1:16" hidden="1" x14ac:dyDescent="0.3">
+    <row r="827" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A827">
         <v>825</v>
       </c>
@@ -41568,7 +41567,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="828" spans="1:16" hidden="1" x14ac:dyDescent="0.3">
+    <row r="828" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A828">
         <v>826</v>
       </c>
@@ -41615,7 +41614,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="829" spans="1:16" hidden="1" x14ac:dyDescent="0.3">
+    <row r="829" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A829">
         <v>827</v>
       </c>
@@ -41662,7 +41661,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="830" spans="1:16" hidden="1" x14ac:dyDescent="0.3">
+    <row r="830" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A830">
         <v>828</v>
       </c>
@@ -41709,7 +41708,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="831" spans="1:16" hidden="1" x14ac:dyDescent="0.3">
+    <row r="831" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A831">
         <v>829</v>
       </c>
@@ -41756,7 +41755,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="832" spans="1:16" hidden="1" x14ac:dyDescent="0.3">
+    <row r="832" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A832">
         <v>830</v>
       </c>
@@ -41803,7 +41802,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="833" spans="1:16" hidden="1" x14ac:dyDescent="0.3">
+    <row r="833" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A833">
         <v>831</v>
       </c>
@@ -41850,7 +41849,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="834" spans="1:16" hidden="1" x14ac:dyDescent="0.3">
+    <row r="834" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A834">
         <v>832</v>
       </c>
@@ -41897,7 +41896,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="835" spans="1:16" hidden="1" x14ac:dyDescent="0.3">
+    <row r="835" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A835">
         <v>833</v>
       </c>
@@ -41944,7 +41943,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="836" spans="1:16" hidden="1" x14ac:dyDescent="0.3">
+    <row r="836" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A836">
         <v>834</v>
       </c>
@@ -41991,7 +41990,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="837" spans="1:16" hidden="1" x14ac:dyDescent="0.3">
+    <row r="837" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A837">
         <v>835</v>
       </c>
@@ -42038,7 +42037,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="838" spans="1:16" hidden="1" x14ac:dyDescent="0.3">
+    <row r="838" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A838">
         <v>836</v>
       </c>
@@ -42085,7 +42084,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="839" spans="1:16" hidden="1" x14ac:dyDescent="0.3">
+    <row r="839" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A839">
         <v>837</v>
       </c>
@@ -42132,7 +42131,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="840" spans="1:16" hidden="1" x14ac:dyDescent="0.3">
+    <row r="840" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A840">
         <v>838</v>
       </c>
@@ -42179,7 +42178,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="841" spans="1:16" hidden="1" x14ac:dyDescent="0.3">
+    <row r="841" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A841">
         <v>839</v>
       </c>
@@ -42226,7 +42225,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="842" spans="1:16" hidden="1" x14ac:dyDescent="0.3">
+    <row r="842" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A842">
         <v>840</v>
       </c>
@@ -42273,7 +42272,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="843" spans="1:16" hidden="1" x14ac:dyDescent="0.3">
+    <row r="843" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A843">
         <v>841</v>
       </c>
@@ -42320,7 +42319,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="844" spans="1:16" hidden="1" x14ac:dyDescent="0.3">
+    <row r="844" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A844">
         <v>842</v>
       </c>
@@ -42367,7 +42366,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="845" spans="1:16" hidden="1" x14ac:dyDescent="0.3">
+    <row r="845" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A845">
         <v>843</v>
       </c>
@@ -42414,7 +42413,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="846" spans="1:16" hidden="1" x14ac:dyDescent="0.3">
+    <row r="846" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A846">
         <v>844</v>
       </c>
@@ -42461,7 +42460,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="847" spans="1:16" hidden="1" x14ac:dyDescent="0.3">
+    <row r="847" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A847">
         <v>845</v>
       </c>
@@ -42508,7 +42507,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="848" spans="1:16" hidden="1" x14ac:dyDescent="0.3">
+    <row r="848" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A848">
         <v>846</v>
       </c>
@@ -42555,7 +42554,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="849" spans="1:16" hidden="1" x14ac:dyDescent="0.3">
+    <row r="849" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A849">
         <v>847</v>
       </c>
@@ -42602,7 +42601,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="850" spans="1:16" hidden="1" x14ac:dyDescent="0.3">
+    <row r="850" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A850">
         <v>848</v>
       </c>
@@ -42649,7 +42648,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="851" spans="1:16" hidden="1" x14ac:dyDescent="0.3">
+    <row r="851" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A851">
         <v>849</v>
       </c>
@@ -42696,7 +42695,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="852" spans="1:16" hidden="1" x14ac:dyDescent="0.3">
+    <row r="852" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A852">
         <v>850</v>
       </c>
@@ -42743,7 +42742,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="853" spans="1:16" hidden="1" x14ac:dyDescent="0.3">
+    <row r="853" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A853">
         <v>851</v>
       </c>
@@ -42790,7 +42789,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="854" spans="1:16" hidden="1" x14ac:dyDescent="0.3">
+    <row r="854" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A854">
         <v>852</v>
       </c>
@@ -42837,7 +42836,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="855" spans="1:16" hidden="1" x14ac:dyDescent="0.3">
+    <row r="855" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A855">
         <v>853</v>
       </c>
@@ -42884,7 +42883,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="856" spans="1:16" hidden="1" x14ac:dyDescent="0.3">
+    <row r="856" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A856">
         <v>854</v>
       </c>
@@ -42931,7 +42930,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="857" spans="1:16" hidden="1" x14ac:dyDescent="0.3">
+    <row r="857" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A857">
         <v>855</v>
       </c>
@@ -42978,7 +42977,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="858" spans="1:16" hidden="1" x14ac:dyDescent="0.3">
+    <row r="858" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A858">
         <v>856</v>
       </c>
@@ -43025,7 +43024,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="859" spans="1:16" hidden="1" x14ac:dyDescent="0.3">
+    <row r="859" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A859">
         <v>857</v>
       </c>
@@ -43072,7 +43071,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="860" spans="1:16" hidden="1" x14ac:dyDescent="0.3">
+    <row r="860" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A860">
         <v>858</v>
       </c>
@@ -43119,7 +43118,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="861" spans="1:16" hidden="1" x14ac:dyDescent="0.3">
+    <row r="861" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A861">
         <v>859</v>
       </c>
@@ -43166,7 +43165,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="862" spans="1:16" hidden="1" x14ac:dyDescent="0.3">
+    <row r="862" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A862">
         <v>860</v>
       </c>
@@ -43213,7 +43212,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="863" spans="1:16" hidden="1" x14ac:dyDescent="0.3">
+    <row r="863" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A863">
         <v>861</v>
       </c>
@@ -43260,7 +43259,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="864" spans="1:16" hidden="1" x14ac:dyDescent="0.3">
+    <row r="864" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A864">
         <v>862</v>
       </c>
@@ -43307,7 +43306,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="865" spans="1:16" hidden="1" x14ac:dyDescent="0.3">
+    <row r="865" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A865">
         <v>863</v>
       </c>
@@ -43354,7 +43353,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="866" spans="1:16" hidden="1" x14ac:dyDescent="0.3">
+    <row r="866" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A866">
         <v>864</v>
       </c>
@@ -43402,13 +43401,7 @@
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:P866" xr:uid="{6A1F0998-923C-4DE5-BD55-EB1B2C5FBCC8}">
-    <filterColumn colId="15">
-      <filters>
-        <filter val="1"/>
-      </filters>
-    </filterColumn>
-  </autoFilter>
+  <autoFilter ref="A1:P866" xr:uid="{6A1F0998-923C-4DE5-BD55-EB1B2C5FBCC8}"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>